--- a/data/qmee_dataset.xlsx
+++ b/data/qmee_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradl\Desktop\myrepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradl\Desktop\myrepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D5DA8C-65D5-4375-9F1D-B2DC7C026E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683DC338-C87E-4A38-9088-D31678B2A516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{C81B5AB3-C32A-4D2C-B3F4-8AE8AACC0660}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>water_temp</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
   </si>
   <si>
     <t>copy_no</t>
@@ -447,7 +444,7 @@
   <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -470,16 +467,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -494,22 +491,22 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -518,58 +515,59 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <f ca="1">(IF(B2,  RANDBETWEEN(25, 40), 0))</f>
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <f ca="1">(IF(B2,  RANDBETWEEN(30, 40), 0))</f>
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <f ca="1">IF(C3,10^(-0.232*C3+2.562), 0)</f>
+        <v>2.7669416454114999E-6</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RAND()*(2-0.01)+0.01</f>
-        <v>1.5222802807319769</v>
+        <v>0.58182647273904731</v>
       </c>
       <c r="F2">
         <f ca="1">SUM((INT(RAND()*(-5-0)+0)), G2)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <f ca="1">INT(RAND()*(32-12)+12)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" ca="1" si="1">RAND()*(9.5-5.5)+5.5</f>
-        <v>5.9747551339522227</v>
+        <v>7.3279521239771688</v>
       </c>
       <c r="I2">
         <f ca="1">RAND()*(0.4-0.05)+0.05</f>
-        <v>0.22872672666324184</v>
+        <v>0.18801197196783559</v>
       </c>
       <c r="J2">
         <f ca="1">RAND()*(12-0)+0</f>
-        <v>4.1949252048074559</v>
+        <v>6.5134854377584768</v>
       </c>
       <c r="K2">
         <f ca="1">RAND()*(20-0)+0</f>
-        <v>1.3378228223802591</v>
+        <v>9.1071392631129058</v>
       </c>
       <c r="L2">
         <f ca="1">RAND()*(500-50)+50</f>
-        <v>115.94270487400456</v>
+        <v>257.81774422630514</v>
       </c>
       <c r="M2">
         <f ca="1">INT(RAND()*(70-1)+1)</f>
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N2">
         <f ca="1">RAND()*(0.4-0.05)+0.05</f>
-        <v>0.1954085350993725</v>
+        <v>7.3466426107190202E-2</v>
       </c>
       <c r="O2">
         <f ca="1">INT(RANDBETWEEN(121, 201))</f>
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -581,56 +579,56 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" ca="1" si="3">(IF(B3,  RANDBETWEEN(25, 40), 0))</f>
-        <v>40</v>
+        <f t="shared" ref="C3:C66" ca="1" si="3">(IF(B3,  RANDBETWEEN(30, 40), 0))</f>
+        <v>35</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" ca="1" si="4">IF(C3,10^(-0.232*C3+2.562), 0)</f>
-        <v>1.9142559250210754E-7</v>
+        <f ca="1">IF(C3,10^(-0.232*C3+2.562), 0)</f>
+        <v>2.7669416454114999E-6</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26614796638194016</v>
+        <v>0.82385852332296716</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F33" ca="1" si="5">SUM((INT(RAND()*(-5-0)+0)), G3)</f>
-        <v>28</v>
+        <f t="shared" ref="F3:F33" ca="1" si="4">SUM((INT(RAND()*(-5-0)+0)), G3)</f>
+        <v>23</v>
       </c>
       <c r="G3">
         <f ca="1">INT(RAND()*(32-12)+12)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6345630054016107</v>
+        <v>5.8704549970504711</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" ca="1" si="6">RAND()*(0.4-0.05)+0.05</f>
-        <v>0.31663947666536341</v>
+        <f t="shared" ref="I3:I66" ca="1" si="5">RAND()*(0.4-0.05)+0.05</f>
+        <v>0.36035856398791999</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" ca="1" si="7">RAND()*(12-0)+0</f>
-        <v>8.1870818809770896</v>
+        <f t="shared" ref="J3:J66" ca="1" si="6">RAND()*(12-0)+0</f>
+        <v>8.6133770643449523</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" ca="1" si="8">RAND()*(20-0)+0</f>
-        <v>10.446835876195683</v>
+        <f t="shared" ref="K3:K66" ca="1" si="7">RAND()*(20-0)+0</f>
+        <v>11.135055613889387</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" ca="1" si="9">RAND()*(500-50)+50</f>
-        <v>374.35797896948765</v>
+        <f t="shared" ref="L3:L66" ca="1" si="8">RAND()*(500-50)+50</f>
+        <v>345.772645184738</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" ca="1" si="10">INT(RAND()*(70-1)+1)</f>
-        <v>37</v>
+        <f t="shared" ref="M3:M66" ca="1" si="9">INT(RAND()*(70-1)+1)</f>
+        <v>56</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" ca="1" si="11">RAND()*(0.4-0.05)+0.05</f>
-        <v>0.37997274981332307</v>
+        <f t="shared" ref="N3:N66" ca="1" si="10">RAND()*(0.4-0.05)+0.05</f>
+        <v>0.30504500512191302</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" ca="1" si="12">INT(RANDBETWEEN(121, 201))</f>
-        <v>125</v>
+        <f t="shared" ref="O3:O66" ca="1" si="11">INT(RANDBETWEEN(121, 201))</f>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -646,52 +644,52 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="D3:D66" ca="1" si="12">IF(C4,10^(-0.232*C4+2.562), 0)</f>
         <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91816770125286995</v>
+        <v>1.0027914565010061</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G33" ca="1" si="13">INT(RAND()*(32-12)+12)</f>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6274860032024279</v>
+        <v>5.7402232523765075</v>
       </c>
       <c r="I4">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10213526340441809</v>
+      </c>
+      <c r="J4">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16942739269541607</v>
-      </c>
-      <c r="J4">
+        <v>3.1960427486500462</v>
+      </c>
+      <c r="K4">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8082822710631685</v>
-      </c>
-      <c r="K4">
+        <v>13.326128814619821</v>
+      </c>
+      <c r="L4">
         <f t="shared" ca="1" si="8"/>
-        <v>7.0282218385819473</v>
-      </c>
-      <c r="L4">
+        <v>288.02498523200967</v>
+      </c>
+      <c r="M4">
         <f t="shared" ca="1" si="9"/>
-        <v>246.83540445637283</v>
-      </c>
-      <c r="M4">
+        <v>65</v>
+      </c>
+      <c r="N4">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
-      </c>
-      <c r="N4">
+        <v>0.32434579252337331</v>
+      </c>
+      <c r="O4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.17395171426978095</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="12"/>
-        <v>147</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -704,55 +702,55 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8233869414166835E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>9.5060479365627909E-7</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1493476586106477</v>
+        <v>1.3164474240232857</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3213611119596589</v>
+        <v>6.4736039247530064</v>
       </c>
       <c r="I5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.20954089675576471</v>
+      </c>
+      <c r="J5">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16403421575675731</v>
-      </c>
-      <c r="J5">
+        <v>9.8719159129831873</v>
+      </c>
+      <c r="K5">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3381798093487731</v>
-      </c>
-      <c r="K5">
+        <v>6.0913639853316992</v>
+      </c>
+      <c r="L5">
         <f t="shared" ca="1" si="8"/>
-        <v>18.907421695765898</v>
-      </c>
-      <c r="L5">
+        <v>409.34394562550881</v>
+      </c>
+      <c r="M5">
         <f t="shared" ca="1" si="9"/>
-        <v>191.72559494404075</v>
-      </c>
-      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="N5">
+        <v>0.11433210286505284</v>
+      </c>
+      <c r="O5">
         <f t="shared" ca="1" si="11"/>
-        <v>0.10685055524190119</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="12"/>
-        <v>192</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -768,52 +766,52 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48116414474146296</v>
+        <v>1.7730401078116445</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7273819855138344</v>
+        <v>6.4475886107006826</v>
       </c>
       <c r="I6">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.34554152302000857</v>
+      </c>
+      <c r="J6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19167558758749498</v>
-      </c>
-      <c r="J6">
+        <v>8.2772125171966078</v>
+      </c>
+      <c r="K6">
         <f t="shared" ca="1" si="7"/>
-        <v>10.489528658378291</v>
-      </c>
-      <c r="K6">
+        <v>17.579657174384099</v>
+      </c>
+      <c r="L6">
         <f t="shared" ca="1" si="8"/>
-        <v>12.033683186428853</v>
-      </c>
-      <c r="L6">
+        <v>231.42407289245881</v>
+      </c>
+      <c r="M6">
         <f t="shared" ca="1" si="9"/>
-        <v>237.94770389462454</v>
-      </c>
-      <c r="M6">
+        <v>35</v>
+      </c>
+      <c r="N6">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="N6">
+        <v>0.24570062422271255</v>
+      </c>
+      <c r="O6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.14267114622310317</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="12"/>
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -829,52 +827,52 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2288788248938283</v>
+        <v>0.50220711547157837</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="13"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6034875459725191</v>
+        <v>5.8367239775637696</v>
       </c>
       <c r="I7">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6297369128950493E-2</v>
+      </c>
+      <c r="J7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27410323377639978</v>
-      </c>
-      <c r="J7">
+        <v>5.5286396451677007</v>
+      </c>
+      <c r="K7">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5947734004517717</v>
-      </c>
-      <c r="K7">
+        <v>2.0648065106386659</v>
+      </c>
+      <c r="L7">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7027150548142309</v>
-      </c>
-      <c r="L7">
+        <v>105.6154101563254</v>
+      </c>
+      <c r="M7">
         <f t="shared" ca="1" si="9"/>
-        <v>192.7527855228052</v>
-      </c>
-      <c r="M7">
+        <v>56</v>
+      </c>
+      <c r="N7">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
-      </c>
-      <c r="N7">
+        <v>0.10192804462038485</v>
+      </c>
+      <c r="O7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.17051457061943931</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="12"/>
-        <v>125</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -887,55 +885,55 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.7809604740571678E-4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8.053784411990634E-6</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6190984390056113</v>
+        <v>1.9547511383698035</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>28</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1200408540624842</v>
+        <v>8.613982007274398</v>
       </c>
       <c r="I8">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.8356145822591785E-2</v>
+      </c>
+      <c r="J8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21437981832148795</v>
-      </c>
-      <c r="J8">
+        <v>10.341146385414639</v>
+      </c>
+      <c r="K8">
         <f t="shared" ca="1" si="7"/>
-        <v>9.8568028765339459</v>
-      </c>
-      <c r="K8">
+        <v>17.947982533323252</v>
+      </c>
+      <c r="L8">
         <f t="shared" ca="1" si="8"/>
-        <v>14.311482504859669</v>
-      </c>
-      <c r="L8">
+        <v>451.60210949045694</v>
+      </c>
+      <c r="M8">
         <f t="shared" ca="1" si="9"/>
-        <v>194.29661202708752</v>
-      </c>
-      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
-      </c>
-      <c r="N8">
+        <v>0.36031040811989168</v>
+      </c>
+      <c r="O8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35317085193750197</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="12"/>
-        <v>200</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -948,55 +946,55 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.5060479365627909E-7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8.053784411990634E-6</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69997243096739303</v>
+        <v>1.5011321553085646</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0067305665564579</v>
+        <v>8.3940869095751598</v>
       </c>
       <c r="I9">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15437145632919758</v>
+      </c>
+      <c r="J9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10513047218357274</v>
-      </c>
-      <c r="J9">
+        <v>4.7028307600905368</v>
+      </c>
+      <c r="K9">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9957689733756463</v>
-      </c>
-      <c r="K9">
+        <v>0.70461002382241844</v>
+      </c>
+      <c r="L9">
         <f t="shared" ca="1" si="8"/>
-        <v>18.050029886099281</v>
-      </c>
-      <c r="L9">
+        <v>93.138622363292683</v>
+      </c>
+      <c r="M9">
         <f t="shared" ca="1" si="9"/>
-        <v>327.64272637537852</v>
-      </c>
-      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
-      </c>
-      <c r="N9">
+        <v>8.2401070937177578E-2</v>
+      </c>
+      <c r="O9">
         <f t="shared" ca="1" si="11"/>
-        <v>0.11391894670333778</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="12"/>
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -1012,52 +1010,52 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5517391182400398E-2</v>
+        <v>1.5588166047193914</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0615581758491413</v>
+        <v>8.0200781583539662</v>
       </c>
       <c r="I10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17123287001932852</v>
+      </c>
+      <c r="J10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21042137117350002</v>
-      </c>
-      <c r="J10">
+        <v>5.0095838885525783</v>
+      </c>
+      <c r="K10">
         <f t="shared" ca="1" si="7"/>
-        <v>10.375505230310718</v>
-      </c>
-      <c r="K10">
+        <v>1.426952211269219</v>
+      </c>
+      <c r="L10">
         <f t="shared" ca="1" si="8"/>
-        <v>11.2037131995172</v>
-      </c>
-      <c r="L10">
+        <v>440.98466207985933</v>
+      </c>
+      <c r="M10">
         <f t="shared" ca="1" si="9"/>
-        <v>130.07884836344877</v>
-      </c>
-      <c r="M10">
+        <v>68</v>
+      </c>
+      <c r="N10">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="N10">
+        <v>0.39810689407447236</v>
+      </c>
+      <c r="O10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.39581130416062099</v>
-      </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="12"/>
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -1066,59 +1064,59 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9860949173573683E-4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0794224056011488</v>
+        <v>0.78836661668966401</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0766046459860696</v>
+        <v>5.7683113740036163</v>
       </c>
       <c r="I11">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.18829706934768342</v>
+      </c>
+      <c r="J11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18623212103165987</v>
-      </c>
-      <c r="J11">
+        <v>5.6421643425667307</v>
+      </c>
+      <c r="K11">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6145320821453524</v>
-      </c>
-      <c r="K11">
+        <v>12.756135513317679</v>
+      </c>
+      <c r="L11">
         <f t="shared" ca="1" si="8"/>
-        <v>15.190914228108108</v>
-      </c>
-      <c r="L11">
+        <v>156.45059826637879</v>
+      </c>
+      <c r="M11">
         <f t="shared" ca="1" si="9"/>
-        <v>68.000079503100565</v>
-      </c>
-      <c r="M11">
+        <v>25</v>
+      </c>
+      <c r="N11">
         <f t="shared" ca="1" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="N11">
+        <v>0.32473206048162412</v>
+      </c>
+      <c r="O11">
         <f t="shared" ca="1" si="11"/>
-        <v>0.2286933782952299</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="12"/>
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -1131,19 +1129,19 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.3442288153199174E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.9142559250210754E-7</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71852370390281095</v>
+        <v>1.449825732315946</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="13"/>
@@ -1151,35 +1149,35 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5270833331256686</v>
+        <v>8.649857152238841</v>
       </c>
       <c r="I12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.2825753966633785</v>
+      </c>
+      <c r="J12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31430771749194719</v>
-      </c>
-      <c r="J12">
+        <v>10.850882249894891</v>
+      </c>
+      <c r="K12">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1302724396331456</v>
-      </c>
-      <c r="K12">
+        <v>6.5126982653348353</v>
+      </c>
+      <c r="L12">
         <f t="shared" ca="1" si="8"/>
-        <v>14.814416227601768</v>
-      </c>
-      <c r="L12">
+        <v>294.61926235444037</v>
+      </c>
+      <c r="M12">
         <f t="shared" ca="1" si="9"/>
-        <v>76.06681155707939</v>
-      </c>
-      <c r="M12">
+        <v>62</v>
+      </c>
+      <c r="N12">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="N12">
+        <v>0.13381530139714021</v>
+      </c>
+      <c r="O12">
         <f t="shared" ca="1" si="11"/>
-        <v>0.38106959290663961</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="12"/>
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -1195,52 +1193,52 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52981100557215033</v>
+        <v>1.7339799004551071</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>6.46491258900907</v>
+        <v>8.6028143231917493</v>
       </c>
       <c r="I13">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10140263689620485</v>
+      </c>
+      <c r="J13">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13584670574254659</v>
-      </c>
-      <c r="J13">
+        <v>8.6951849540885142</v>
+      </c>
+      <c r="K13">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2609489573621353</v>
-      </c>
-      <c r="K13">
+        <v>5.7615619964222464</v>
+      </c>
+      <c r="L13">
         <f t="shared" ca="1" si="8"/>
-        <v>13.759258731357304</v>
-      </c>
-      <c r="L13">
+        <v>229.92298454261413</v>
+      </c>
+      <c r="M13">
         <f t="shared" ca="1" si="9"/>
-        <v>104.7174949666568</v>
-      </c>
-      <c r="M13">
+        <v>59</v>
+      </c>
+      <c r="N13">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
-      </c>
-      <c r="N13">
+        <v>0.28855777437679786</v>
+      </c>
+      <c r="O13">
         <f t="shared" ca="1" si="11"/>
-        <v>0.12849881875864949</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="12"/>
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -1249,23 +1247,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7669416454114999E-6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.442323395740152</v>
+        <v>0.45184645226077558</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="13"/>
@@ -1273,35 +1271,35 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1786201715335878</v>
+        <v>8.8240837460846286</v>
       </c>
       <c r="I14">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.21614787357902915</v>
+      </c>
+      <c r="J14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26024933421350172</v>
-      </c>
-      <c r="J14">
+        <v>4.2192878131066269</v>
+      </c>
+      <c r="K14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4304027887108135</v>
-      </c>
-      <c r="K14">
+        <v>17.585011326459089</v>
+      </c>
+      <c r="L14">
         <f t="shared" ca="1" si="8"/>
-        <v>10.920068755604085</v>
-      </c>
-      <c r="L14">
+        <v>92.551398906101241</v>
+      </c>
+      <c r="M14">
         <f t="shared" ca="1" si="9"/>
-        <v>172.39429475461324</v>
-      </c>
-      <c r="M14">
+        <v>19</v>
+      </c>
+      <c r="N14">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
-      </c>
-      <c r="N14">
+        <v>5.5465854250742089E-2</v>
+      </c>
+      <c r="O14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32958962382756535</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="12"/>
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -1310,59 +1308,59 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4.7206304126358905E-6</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2830863370894368</v>
+        <v>1.7842778333340552</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="13"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9249418892423726</v>
+        <v>6.3968640225855093</v>
       </c>
       <c r="I15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.19788039973058935</v>
+      </c>
+      <c r="J15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36709950136310349</v>
-      </c>
-      <c r="J15">
+        <v>7.4822950085703912</v>
+      </c>
+      <c r="K15">
         <f t="shared" ca="1" si="7"/>
-        <v>10.065595435513179</v>
-      </c>
-      <c r="K15">
+        <v>5.7370426427381505</v>
+      </c>
+      <c r="L15">
         <f t="shared" ca="1" si="8"/>
-        <v>4.503615608152602</v>
-      </c>
-      <c r="L15">
+        <v>219.89777747907016</v>
+      </c>
+      <c r="M15">
         <f t="shared" ca="1" si="9"/>
-        <v>178.52324702068091</v>
-      </c>
-      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="N15">
+        <v>0.27095795351986773</v>
+      </c>
+      <c r="O15">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1126295527964192E-2</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="12"/>
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -1371,59 +1369,59 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.6218100973589245E-6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75749166639262167</v>
+        <v>0.47053708111116843</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3573266692938528</v>
+        <v>7.6048524494805143</v>
       </c>
       <c r="I16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.3133003725820111</v>
+      </c>
+      <c r="J16">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18313233443020721</v>
-      </c>
-      <c r="J16">
+        <v>3.1452514650068828</v>
+      </c>
+      <c r="K16">
         <f t="shared" ca="1" si="7"/>
-        <v>8.8207611331391398</v>
-      </c>
-      <c r="K16">
+        <v>17.708534689382898</v>
+      </c>
+      <c r="L16">
         <f t="shared" ca="1" si="8"/>
-        <v>14.053575660760833</v>
-      </c>
-      <c r="L16">
+        <v>292.6162485974956</v>
+      </c>
+      <c r="M16">
         <f t="shared" ca="1" si="9"/>
-        <v>406.61273651063851</v>
-      </c>
-      <c r="M16">
+        <v>63</v>
+      </c>
+      <c r="N16">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="N16">
+        <v>0.21251637554532005</v>
+      </c>
+      <c r="O16">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16136954758989541</v>
-      </c>
-      <c r="O16">
-        <f t="shared" ca="1" si="12"/>
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
@@ -1432,59 +1430,59 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>9.5060479365627909E-7</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26412994147502938</v>
+        <v>0.87828172291848849</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2974967216494875</v>
+        <v>8.0775903925015164</v>
       </c>
       <c r="I17">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.13327065996555185</v>
+      </c>
+      <c r="J17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24997108697454473</v>
-      </c>
-      <c r="J17">
+        <v>9.3586915771673542</v>
+      </c>
+      <c r="K17">
         <f t="shared" ca="1" si="7"/>
-        <v>11.049066691712195</v>
-      </c>
-      <c r="K17">
+        <v>17.379501574632904</v>
+      </c>
+      <c r="L17">
         <f t="shared" ca="1" si="8"/>
-        <v>19.59673496495272</v>
-      </c>
-      <c r="L17">
+        <v>433.42810978106803</v>
+      </c>
+      <c r="M17">
         <f t="shared" ca="1" si="9"/>
-        <v>92.813575615825059</v>
-      </c>
-      <c r="M17">
+        <v>48</v>
+      </c>
+      <c r="N17">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
-      </c>
-      <c r="N17">
+        <v>0.28927437064409595</v>
+      </c>
+      <c r="O17">
         <f t="shared" ca="1" si="11"/>
-        <v>0.20942078952030085</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="12"/>
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
@@ -1493,59 +1491,59 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8233869414166835E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.210571407062019</v>
+        <v>0.58034511710862779</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1965553420576427</v>
+        <v>7.2115001769892819</v>
       </c>
       <c r="I18">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.5242639779151896E-2</v>
+      </c>
+      <c r="J18">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11468226181234323</v>
-      </c>
-      <c r="J18">
+        <v>3.1454578648772458</v>
+      </c>
+      <c r="K18">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2682516935724637</v>
-      </c>
-      <c r="K18">
+        <v>3.0899817720555989</v>
+      </c>
+      <c r="L18">
         <f t="shared" ca="1" si="8"/>
-        <v>18.65341960802003</v>
-      </c>
-      <c r="L18">
+        <v>90.00656242913891</v>
+      </c>
+      <c r="M18">
         <f t="shared" ca="1" si="9"/>
-        <v>167.73534524895462</v>
-      </c>
-      <c r="M18">
+        <v>55</v>
+      </c>
+      <c r="N18">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
-      </c>
-      <c r="N18">
+        <v>0.39799862972240441</v>
+      </c>
+      <c r="O18">
         <f t="shared" ca="1" si="11"/>
-        <v>0.2857133568739964</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="12"/>
-        <v>193</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
@@ -1554,23 +1552,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2.7669416454114999E-6</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0462586689339854</v>
+        <v>1.2041514622586853</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="13"/>
@@ -1578,35 +1576,35 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9086020493258342</v>
+        <v>9.2806232699400173</v>
       </c>
       <c r="I19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.37666488505792639</v>
+      </c>
+      <c r="J19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23518935087209369</v>
-      </c>
-      <c r="J19">
+        <v>9.2682637450592988</v>
+      </c>
+      <c r="K19">
         <f t="shared" ca="1" si="7"/>
-        <v>9.594754345075458</v>
-      </c>
-      <c r="K19">
+        <v>12.005001630240217</v>
+      </c>
+      <c r="L19">
         <f t="shared" ca="1" si="8"/>
-        <v>19.144856550569472</v>
-      </c>
-      <c r="L19">
+        <v>212.3563389186815</v>
+      </c>
+      <c r="M19">
         <f t="shared" ca="1" si="9"/>
-        <v>191.30486696185966</v>
-      </c>
-      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="N19">
+        <v>0.123236641518432</v>
+      </c>
+      <c r="O19">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22723571659393227</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="12"/>
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
@@ -1615,59 +1613,59 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.5718574893192694E-7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1.161518029076489</v>
+        <v>1.67252256838363</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6113831558760232</v>
+        <v>8.9108564849403393</v>
       </c>
       <c r="I20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10236979283045033</v>
+      </c>
+      <c r="J20">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24276971993365515</v>
-      </c>
-      <c r="J20">
+        <v>4.7482404990085421</v>
+      </c>
+      <c r="K20">
         <f t="shared" ca="1" si="7"/>
-        <v>9.288008696591076</v>
-      </c>
-      <c r="K20">
+        <v>8.4355171503959951</v>
+      </c>
+      <c r="L20">
         <f t="shared" ca="1" si="8"/>
-        <v>10.544775988436054</v>
-      </c>
-      <c r="L20">
+        <v>445.12697597963091</v>
+      </c>
+      <c r="M20">
         <f t="shared" ca="1" si="9"/>
-        <v>327.41042126429676</v>
-      </c>
-      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
-      </c>
-      <c r="N20">
+        <v>0.21250467298755193</v>
+      </c>
+      <c r="O20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.29661641151091189</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="12"/>
-        <v>188</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
@@ -1683,52 +1681,52 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1182290456091042</v>
+        <v>1.3499585565643932</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4925244885572191</v>
+        <v>8.7622515258402593</v>
       </c>
       <c r="I21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39077490142065269</v>
+      </c>
+      <c r="J21">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0586783054838166E-2</v>
-      </c>
-      <c r="J21">
+        <v>3.9674108965272672</v>
+      </c>
+      <c r="K21">
         <f t="shared" ca="1" si="7"/>
-        <v>0.29008363280415139</v>
-      </c>
-      <c r="K21">
+        <v>12.832586694064716</v>
+      </c>
+      <c r="L21">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0092158302076069</v>
-      </c>
-      <c r="L21">
+        <v>410.37176589885206</v>
+      </c>
+      <c r="M21">
         <f t="shared" ca="1" si="9"/>
-        <v>400.80134806050313</v>
-      </c>
-      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
-      </c>
-      <c r="N21">
+        <v>0.2881271705280144</v>
+      </c>
+      <c r="O21">
         <f t="shared" ca="1" si="11"/>
-        <v>0.174498088919808</v>
-      </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="12"/>
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
@@ -1737,59 +1735,59 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.7206304126358905E-6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9890867331053805</v>
+        <v>1.7341036642287995</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7258771530736432</v>
+        <v>7.0920288029023855</v>
       </c>
       <c r="I22">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.33681709615074695</v>
+      </c>
+      <c r="J22">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13079351049709145</v>
-      </c>
-      <c r="J22">
+        <v>7.1972827275085942</v>
+      </c>
+      <c r="K22">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5430764186454784</v>
-      </c>
-      <c r="K22">
+        <v>8.1988164201079954</v>
+      </c>
+      <c r="L22">
         <f t="shared" ca="1" si="8"/>
-        <v>6.3535772006761775</v>
-      </c>
-      <c r="L22">
+        <v>197.28336193451281</v>
+      </c>
+      <c r="M22">
         <f t="shared" ca="1" si="9"/>
-        <v>83.779500907623202</v>
-      </c>
-      <c r="M22">
+        <v>35</v>
+      </c>
+      <c r="N22">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
-      </c>
-      <c r="N22">
+        <v>0.2212018767537049</v>
+      </c>
+      <c r="O22">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8067887220083931E-2</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ca="1" si="12"/>
-        <v>199</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
@@ -1802,55 +1800,55 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3884415613920208E-4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3.999447497610971E-5</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19949556312648312</v>
+        <v>0.91498485729400825</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1025269507852204</v>
+        <v>9.4716757531517128</v>
       </c>
       <c r="I23">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.3821946332387746E-2</v>
+      </c>
+      <c r="J23">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34773236295178828</v>
-      </c>
-      <c r="J23">
+        <v>10.988114361272364</v>
+      </c>
+      <c r="K23">
         <f t="shared" ca="1" si="7"/>
-        <v>10.309537930266979</v>
-      </c>
-      <c r="K23">
+        <v>8.5686876579702975</v>
+      </c>
+      <c r="L23">
         <f t="shared" ca="1" si="8"/>
-        <v>19.703340250547466</v>
-      </c>
-      <c r="L23">
+        <v>453.1340775620846</v>
+      </c>
+      <c r="M23">
         <f t="shared" ca="1" si="9"/>
-        <v>402.57035739578401</v>
-      </c>
-      <c r="M23">
+        <v>29</v>
+      </c>
+      <c r="N23">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="N23">
+        <v>0.39519098154282911</v>
+      </c>
+      <c r="O23">
         <f t="shared" ca="1" si="11"/>
-        <v>0.12569577951871166</v>
-      </c>
-      <c r="O23">
-        <f t="shared" ca="1" si="12"/>
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -1859,59 +1857,59 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.5718574893192694E-7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1837211155460805</v>
+        <v>0.56235338355545716</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1316700765649905</v>
+        <v>8.9776970672232679</v>
       </c>
       <c r="I24">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10609820947478621</v>
+      </c>
+      <c r="J24">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22840605549397425</v>
-      </c>
-      <c r="J24">
+        <v>6.0455305504055072</v>
+      </c>
+      <c r="K24">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3262980138850828</v>
-      </c>
-      <c r="K24">
+        <v>17.471458937784725</v>
+      </c>
+      <c r="L24">
         <f t="shared" ca="1" si="8"/>
-        <v>12.40566969920279</v>
-      </c>
-      <c r="L24">
+        <v>423.53060133630436</v>
+      </c>
+      <c r="M24">
         <f t="shared" ca="1" si="9"/>
-        <v>293.61870506343115</v>
-      </c>
-      <c r="M24">
+        <v>55</v>
+      </c>
+      <c r="N24">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="N24">
+        <v>0.32202015393852373</v>
+      </c>
+      <c r="O24">
         <f t="shared" ca="1" si="11"/>
-        <v>0.155621220929647</v>
-      </c>
-      <c r="O24">
-        <f t="shared" ca="1" si="12"/>
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -1920,59 +1918,59 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5.5718574893192694E-7</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8887902265356562</v>
+        <v>0.44563349193755053</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6339332893868939</v>
+        <v>9.3873711173042249</v>
       </c>
       <c r="I25">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6040214905684619E-2</v>
+      </c>
+      <c r="J25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22039002981791372</v>
-      </c>
-      <c r="J25">
+        <v>3.4682650678041718</v>
+      </c>
+      <c r="K25">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4375762365674039</v>
-      </c>
-      <c r="K25">
+        <v>10.495079085908273</v>
+      </c>
+      <c r="L25">
         <f t="shared" ca="1" si="8"/>
-        <v>10.032222684204186</v>
-      </c>
-      <c r="L25">
+        <v>490.01391567982256</v>
+      </c>
+      <c r="M25">
         <f t="shared" ca="1" si="9"/>
-        <v>414.74660364814736</v>
-      </c>
-      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N25">
+        <v>0.29033218664974941</v>
+      </c>
+      <c r="O25">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28686327647343085</v>
-      </c>
-      <c r="O25">
-        <f t="shared" ca="1" si="12"/>
-        <v>139</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -1981,59 +1979,59 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8.053784411990634E-6</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79337206257464665</v>
+        <v>1.3227844455584592</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="13"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9246430802289431</v>
+        <v>9.2574083544536236</v>
       </c>
       <c r="I26">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38292524502681019</v>
+      </c>
+      <c r="J26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.14625442858430759</v>
-      </c>
-      <c r="J26">
+        <v>3.5326279630887152</v>
+      </c>
+      <c r="K26">
         <f t="shared" ca="1" si="7"/>
-        <v>0.46228052586629076</v>
-      </c>
-      <c r="K26">
+        <v>5.1085047795363998</v>
+      </c>
+      <c r="L26">
         <f t="shared" ca="1" si="8"/>
-        <v>15.129083264203544</v>
-      </c>
-      <c r="L26">
+        <v>463.38701734797257</v>
+      </c>
+      <c r="M26">
         <f t="shared" ca="1" si="9"/>
-        <v>264.44432681089415</v>
-      </c>
-      <c r="M26">
+        <v>27</v>
+      </c>
+      <c r="N26">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="N26">
+        <v>0.3726760910889364</v>
+      </c>
+      <c r="O26">
         <f t="shared" ca="1" si="11"/>
-        <v>0.30271835665429392</v>
-      </c>
-      <c r="O26">
-        <f t="shared" ca="1" si="12"/>
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
@@ -2049,52 +2047,52 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74204849799691475</v>
+        <v>1.7054481266439825</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3829520226819731</v>
+        <v>7.5753212463239397</v>
       </c>
       <c r="I27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16192237252595676</v>
+      </c>
+      <c r="J27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2168199637999132</v>
-      </c>
-      <c r="J27">
+        <v>0.86042461771399514</v>
+      </c>
+      <c r="K27">
         <f t="shared" ca="1" si="7"/>
-        <v>2.484139227809858</v>
-      </c>
-      <c r="K27">
+        <v>11.218900281391193</v>
+      </c>
+      <c r="L27">
         <f t="shared" ca="1" si="8"/>
-        <v>14.534763940207077</v>
-      </c>
-      <c r="L27">
+        <v>245.94079717336064</v>
+      </c>
+      <c r="M27">
         <f t="shared" ca="1" si="9"/>
-        <v>365.70314141960836</v>
-      </c>
-      <c r="M27">
+        <v>24</v>
+      </c>
+      <c r="N27">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="N27">
+        <v>6.1040613125112629E-2</v>
+      </c>
+      <c r="O27">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36807415494651785</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="12"/>
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
@@ -2107,55 +2105,55 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.1641260294104884E-4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3.999447497610971E-5</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11378997820096186</v>
+        <v>0.847072980743517</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="13"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1672220224027994</v>
+        <v>5.6198788044779633</v>
       </c>
       <c r="I28">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.19103092478284078</v>
+      </c>
+      <c r="J28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13524382049109052</v>
-      </c>
-      <c r="J28">
+        <v>5.4362749868413527</v>
+      </c>
+      <c r="K28">
         <f t="shared" ca="1" si="7"/>
-        <v>10.6029610712836</v>
-      </c>
-      <c r="K28">
+        <v>13.443721713341663</v>
+      </c>
+      <c r="L28">
         <f t="shared" ca="1" si="8"/>
-        <v>15.159194808918794</v>
-      </c>
-      <c r="L28">
+        <v>374.99047906580682</v>
+      </c>
+      <c r="M28">
         <f t="shared" ca="1" si="9"/>
-        <v>401.92372932768797</v>
-      </c>
-      <c r="M28">
+        <v>39</v>
+      </c>
+      <c r="N28">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
-      </c>
-      <c r="N28">
+        <v>0.37313205368309599</v>
+      </c>
+      <c r="O28">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28906523756440167</v>
-      </c>
-      <c r="O28">
-        <f t="shared" ca="1" si="12"/>
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
@@ -2171,52 +2169,52 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9887963765557615</v>
+        <v>1.4480542670916359</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="13"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6858420578875322</v>
+        <v>9.2132983682317047</v>
       </c>
       <c r="I29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.18819791439303618</v>
+      </c>
+      <c r="J29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15679499095081378</v>
-      </c>
-      <c r="J29">
+        <v>7.1253720331828987</v>
+      </c>
+      <c r="K29">
         <f t="shared" ca="1" si="7"/>
-        <v>11.506742798904025</v>
-      </c>
-      <c r="K29">
+        <v>16.886403935760022</v>
+      </c>
+      <c r="L29">
         <f t="shared" ca="1" si="8"/>
-        <v>12.291495785192794</v>
-      </c>
-      <c r="L29">
+        <v>349.39937231649861</v>
+      </c>
+      <c r="M29">
         <f t="shared" ca="1" si="9"/>
-        <v>262.56793271838558</v>
-      </c>
-      <c r="M29">
+        <v>9</v>
+      </c>
+      <c r="N29">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="N29">
+        <v>0.1399191328003847</v>
+      </c>
+      <c r="O29">
         <f t="shared" ca="1" si="11"/>
-        <v>0.12629927204783123</v>
-      </c>
-      <c r="O29">
-        <f t="shared" ca="1" si="12"/>
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
@@ -2229,55 +2227,55 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.5060479365627909E-7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.6218100973589245E-6</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6559923365488211E-2</v>
+        <v>1.9369216846641637</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6201812327499399</v>
+        <v>5.7455411033325232</v>
       </c>
       <c r="I30">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.31130803745711993</v>
+      </c>
+      <c r="J30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30031432462669044</v>
-      </c>
-      <c r="J30">
+        <v>7.0912527322769101</v>
+      </c>
+      <c r="K30">
         <f t="shared" ca="1" si="7"/>
-        <v>10.921381966469413</v>
-      </c>
-      <c r="K30">
+        <v>19.510484610891016</v>
+      </c>
+      <c r="L30">
         <f t="shared" ca="1" si="8"/>
-        <v>8.0175600053605542</v>
-      </c>
-      <c r="L30">
+        <v>482.22665414413814</v>
+      </c>
+      <c r="M30">
         <f t="shared" ca="1" si="9"/>
-        <v>214.46358481893381</v>
-      </c>
-      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
-      </c>
-      <c r="N30">
+        <v>0.34447719457210879</v>
+      </c>
+      <c r="O30">
         <f t="shared" ca="1" si="11"/>
-        <v>0.13351968099696582</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ca="1" si="12"/>
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
@@ -2293,52 +2291,52 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69079125610502279</v>
+        <v>0.95540667942416024</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6683352306878305</v>
+        <v>5.5469868399667135</v>
       </c>
       <c r="I31">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.7003734425110456E-2</v>
+      </c>
+      <c r="J31">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31727249209585701</v>
-      </c>
-      <c r="J31">
+        <v>2.2773783373946768</v>
+      </c>
+      <c r="K31">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2700766352135391</v>
-      </c>
-      <c r="K31">
+        <v>14.629545892412805</v>
+      </c>
+      <c r="L31">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5795179071259664</v>
-      </c>
-      <c r="L31">
+        <v>287.92149265382147</v>
+      </c>
+      <c r="M31">
         <f t="shared" ca="1" si="9"/>
-        <v>185.73842478983983</v>
-      </c>
-      <c r="M31">
+        <v>31</v>
+      </c>
+      <c r="N31">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
-      </c>
-      <c r="N31">
+        <v>0.31791483917707603</v>
+      </c>
+      <c r="O31">
         <f t="shared" ca="1" si="11"/>
-        <v>0.15338751874793755</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ca="1" si="12"/>
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
@@ -2351,55 +2349,55 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.3740419750125134E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4.7206304126358905E-6</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5764428950977862E-2</v>
+        <v>1.9544915883733911</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="13"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9264452681302089</v>
+        <v>6.9411316739043478</v>
       </c>
       <c r="I32">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.25848210795918825</v>
+      </c>
+      <c r="J32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26862809662591319</v>
-      </c>
-      <c r="J32">
+        <v>7.892252806048889</v>
+      </c>
+      <c r="K32">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9849430859189878</v>
-      </c>
-      <c r="K32">
+        <v>15.79518784739256</v>
+      </c>
+      <c r="L32">
         <f t="shared" ca="1" si="8"/>
-        <v>14.179836050376565</v>
-      </c>
-      <c r="L32">
+        <v>92.871715166002843</v>
+      </c>
+      <c r="M32">
         <f t="shared" ca="1" si="9"/>
-        <v>304.77822072429387</v>
-      </c>
-      <c r="M32">
+        <v>34</v>
+      </c>
+      <c r="N32">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
-      </c>
-      <c r="N32">
+        <v>0.31377697161178286</v>
+      </c>
+      <c r="O32">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22003389090347741</v>
-      </c>
-      <c r="O32">
-        <f t="shared" ca="1" si="12"/>
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
@@ -2412,55 +2410,55 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9860949173573683E-4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.9142559250210754E-7</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21835580921730344</v>
+        <v>0.57866011905847625</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="13"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9315797163075246</v>
+        <v>6.9366912990869913</v>
       </c>
       <c r="I33">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38204914219290242</v>
+      </c>
+      <c r="J33">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15500623576319855</v>
-      </c>
-      <c r="J33">
+        <v>2.6575507539065772</v>
+      </c>
+      <c r="K33">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0217236711683988</v>
-      </c>
-      <c r="K33">
+        <v>2.7067177851889124</v>
+      </c>
+      <c r="L33">
         <f t="shared" ca="1" si="8"/>
-        <v>16.81544689204231</v>
-      </c>
-      <c r="L33">
+        <v>201.77565158391602</v>
+      </c>
+      <c r="M33">
         <f t="shared" ca="1" si="9"/>
-        <v>322.86298009227392</v>
-      </c>
-      <c r="M33">
+        <v>43</v>
+      </c>
+      <c r="N33">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="N33">
+        <v>0.33254901238429224</v>
+      </c>
+      <c r="O33">
         <f t="shared" ca="1" si="11"/>
-        <v>0.11815546661031447</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ca="1" si="12"/>
-        <v>194</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
@@ -2472,20 +2470,20 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <f ca="1">(IF(B34,  RANDBETWEEN(25, 40), 0))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6605118356003048</v>
+        <v>0.481363499920543</v>
       </c>
       <c r="F34">
         <f ca="1">SUM((INT(RAND()*(-5-0)+0)), G34)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G34">
         <f ca="1">INT(RAND()*(32-12)+12)</f>
@@ -2493,35 +2491,35 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2882657938615978</v>
+        <v>6.7835461447320125</v>
       </c>
       <c r="I34">
         <f ca="1">RAND()*(0.4-0.05)+0.05</f>
-        <v>0.29702020384680261</v>
+        <v>0.18579070022313376</v>
       </c>
       <c r="J34">
         <f ca="1">RAND()*(12-0)+0</f>
-        <v>3.0115101493523873</v>
+        <v>10.411768003339965</v>
       </c>
       <c r="K34">
         <f ca="1">RAND()*(20-0)+0</f>
-        <v>19.298940025454513</v>
+        <v>18.675940819908746</v>
       </c>
       <c r="L34">
         <f ca="1">RAND()*(500-50)+50</f>
-        <v>137.06520671444423</v>
+        <v>69.613999323681796</v>
       </c>
       <c r="M34">
         <f ca="1">INT(RAND()*(70-1)+1)</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <f ca="1">RAND()*(0.4-0.05)+0.05</f>
-        <v>0.37406966080675291</v>
+        <v>0.38072753070087734</v>
       </c>
       <c r="O34">
         <f ca="1">INT(RANDBETWEEN(121, 201))</f>
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
@@ -2530,59 +2528,59 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.999447497610971E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8014807965926871</v>
+        <v>0.40679477563159155</v>
       </c>
       <c r="F35">
         <f t="shared" ref="F35:F71" ca="1" si="14">SUM((INT(RAND()*(-5-0)+0)), G35)</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <f ca="1">INT(RAND()*(32-12)+12)</f>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0365059374549332</v>
+        <v>7.7378332322116128</v>
       </c>
       <c r="I35">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15516907601666163</v>
+      </c>
+      <c r="J35">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35320597804695858</v>
-      </c>
-      <c r="J35">
+        <v>10.525992135780642</v>
+      </c>
+      <c r="K35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0916475958480305</v>
-      </c>
-      <c r="K35">
+        <v>9.3131486634946441</v>
+      </c>
+      <c r="L35">
         <f t="shared" ca="1" si="8"/>
-        <v>14.89568226438935</v>
-      </c>
-      <c r="L35">
+        <v>396.10365484105051</v>
+      </c>
+      <c r="M35">
         <f t="shared" ca="1" si="9"/>
-        <v>269.14941248868274</v>
-      </c>
-      <c r="M35">
+        <v>56</v>
+      </c>
+      <c r="N35">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
-      </c>
-      <c r="N35">
+        <v>0.21610478391882354</v>
+      </c>
+      <c r="O35">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36004260721880693</v>
-      </c>
-      <c r="O35">
-        <f t="shared" ca="1" si="12"/>
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
@@ -2598,52 +2596,52 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1411764769294876</v>
+        <v>0.5184899112395509</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="14"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G36">
         <f t="shared" ref="G36:G99" ca="1" si="15">INT(RAND()*(32-12)+12)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2184763304400317</v>
+        <v>8.7972980632026854</v>
       </c>
       <c r="I36">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10496557705210469</v>
+      </c>
+      <c r="J36">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4165081425403799E-2</v>
-      </c>
-      <c r="J36">
+        <v>5.9945346909882709</v>
+      </c>
+      <c r="K36">
         <f t="shared" ca="1" si="7"/>
-        <v>11.205795517941754</v>
-      </c>
-      <c r="K36">
+        <v>18.762639096778635</v>
+      </c>
+      <c r="L36">
         <f t="shared" ca="1" si="8"/>
-        <v>13.731053135126903</v>
-      </c>
-      <c r="L36">
+        <v>180.64815568329828</v>
+      </c>
+      <c r="M36">
         <f t="shared" ca="1" si="9"/>
-        <v>298.59429100624527</v>
-      </c>
-      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="N36">
+        <v>0.39295265104806326</v>
+      </c>
+      <c r="O36">
         <f t="shared" ca="1" si="11"/>
-        <v>9.4570837759196336E-2</v>
-      </c>
-      <c r="O36">
-        <f t="shared" ca="1" si="12"/>
-        <v>179</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
@@ -2652,59 +2650,59 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8.053784411990634E-6</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73104203905557008</v>
+        <v>1.9008955922515831</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="15"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8794783163330209</v>
+        <v>8.0949947861518314</v>
       </c>
       <c r="I37">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.27401869630434389</v>
+      </c>
+      <c r="J37">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39362347544321041</v>
-      </c>
-      <c r="J37">
+        <v>11.585273386019397</v>
+      </c>
+      <c r="K37">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7627269114774737</v>
-      </c>
-      <c r="K37">
+        <v>15.403761348219868</v>
+      </c>
+      <c r="L37">
         <f t="shared" ca="1" si="8"/>
-        <v>14.083589947434174</v>
-      </c>
-      <c r="L37">
+        <v>289.91654708757756</v>
+      </c>
+      <c r="M37">
         <f t="shared" ca="1" si="9"/>
-        <v>74.907495867097879</v>
-      </c>
-      <c r="M37">
+        <v>18</v>
+      </c>
+      <c r="N37">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
-      </c>
-      <c r="N37">
+        <v>0.203934630799878</v>
+      </c>
+      <c r="O37">
         <f t="shared" ca="1" si="11"/>
-        <v>0.34040231629327711</v>
-      </c>
-      <c r="O37">
-        <f t="shared" ca="1" si="12"/>
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
@@ -2713,59 +2711,59 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.5060479365627909E-7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2535777344231871</v>
+        <v>0.43155412360006989</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="14"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="15"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9432196837297955</v>
+        <v>6.6551793623046542</v>
       </c>
       <c r="I38">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15116311490008222</v>
+      </c>
+      <c r="J38">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37703015213416413</v>
-      </c>
-      <c r="J38">
+        <v>10.896167585381388</v>
+      </c>
+      <c r="K38">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9862374530453208</v>
-      </c>
-      <c r="K38">
+        <v>13.008052813763411</v>
+      </c>
+      <c r="L38">
         <f t="shared" ca="1" si="8"/>
-        <v>19.237746095628427</v>
-      </c>
-      <c r="L38">
+        <v>270.45439895330162</v>
+      </c>
+      <c r="M38">
         <f t="shared" ca="1" si="9"/>
-        <v>498.69302005002135</v>
-      </c>
-      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
         <f t="shared" ca="1" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="N38">
+        <v>7.4368360969768815E-2</v>
+      </c>
+      <c r="O38">
         <f t="shared" ca="1" si="11"/>
-        <v>0.3224309431512189</v>
-      </c>
-      <c r="O38">
-        <f t="shared" ca="1" si="12"/>
-        <v>176</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
@@ -2774,23 +2772,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.7206304126358905E-6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8445505347375204</v>
+        <v>1.4791478587366875</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="14"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="15"/>
@@ -2798,35 +2796,35 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9659469055699965</v>
+        <v>9.1753246778772599</v>
       </c>
       <c r="I39">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.33472491136998361</v>
+      </c>
+      <c r="J39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21299713475454746</v>
-      </c>
-      <c r="J39">
+        <v>10.040697956070428</v>
+      </c>
+      <c r="K39">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3256320319602821</v>
-      </c>
-      <c r="K39">
+        <v>7.4327980164238516</v>
+      </c>
+      <c r="L39">
         <f t="shared" ca="1" si="8"/>
-        <v>5.0899978822449103</v>
-      </c>
-      <c r="L39">
+        <v>246.73867522621219</v>
+      </c>
+      <c r="M39">
         <f t="shared" ca="1" si="9"/>
-        <v>224.81098932091811</v>
-      </c>
-      <c r="M39">
+        <v>59</v>
+      </c>
+      <c r="N39">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
-      </c>
-      <c r="N39">
+        <v>0.24433763356684313</v>
+      </c>
+      <c r="O39">
         <f t="shared" ca="1" si="11"/>
-        <v>0.11096123773445754</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ca="1" si="12"/>
-        <v>164</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
@@ -2835,59 +2833,59 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.3442288153199174E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3488060344401904</v>
+        <v>0.9171370299651046</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="14"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="15"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2118035552398805</v>
+        <v>6.2265305281097394</v>
       </c>
       <c r="I40">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.32352981885101156</v>
+      </c>
+      <c r="J40">
         <f t="shared" ca="1" si="6"/>
-        <v>7.2176310007925543E-2</v>
-      </c>
-      <c r="J40">
+        <v>0.58023045599540168</v>
+      </c>
+      <c r="K40">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4360738637573305</v>
-      </c>
-      <c r="K40">
+        <v>0.78651183292802518</v>
+      </c>
+      <c r="L40">
         <f t="shared" ca="1" si="8"/>
-        <v>12.645015405179759</v>
-      </c>
-      <c r="L40">
+        <v>284.89749211586519</v>
+      </c>
+      <c r="M40">
         <f t="shared" ca="1" si="9"/>
-        <v>182.63583846202943</v>
-      </c>
-      <c r="M40">
+        <v>32</v>
+      </c>
+      <c r="N40">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="N40">
+        <v>0.32160187254579448</v>
+      </c>
+      <c r="O40">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33530765964180759</v>
-      </c>
-      <c r="O40">
-        <f t="shared" ca="1" si="12"/>
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
@@ -2896,59 +2894,59 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.6218100973589245E-6</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11993815145591916</v>
+        <v>1.2230987940934444</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="14"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="15"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8500967158518318</v>
+        <v>7.3388954010441259</v>
       </c>
       <c r="I41">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.30626131088030945</v>
+      </c>
+      <c r="J41">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22442158608638169</v>
-      </c>
-      <c r="J41">
+        <v>9.1876724568208221</v>
+      </c>
+      <c r="K41">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7795224358596995</v>
-      </c>
-      <c r="K41">
+        <v>13.74094644744892</v>
+      </c>
+      <c r="L41">
         <f t="shared" ca="1" si="8"/>
-        <v>4.8051731750415634</v>
-      </c>
-      <c r="L41">
+        <v>355.5155168528367</v>
+      </c>
+      <c r="M41">
         <f t="shared" ca="1" si="9"/>
-        <v>499.00597035263939</v>
-      </c>
-      <c r="M41">
+        <v>37</v>
+      </c>
+      <c r="N41">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="N41">
+        <v>0.11163544119004931</v>
+      </c>
+      <c r="O41">
         <f t="shared" ca="1" si="11"/>
-        <v>0.19369268478618384</v>
-      </c>
-      <c r="O41">
-        <f t="shared" ca="1" si="12"/>
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
@@ -2964,52 +2962,52 @@
         <v>38</v>
       </c>
       <c r="D42">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>5.5718574893192694E-7</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33042788658003514</v>
+        <v>8.116972198721488E-2</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="14"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="15"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2528665886016821</v>
+        <v>6.6307918352045778</v>
       </c>
       <c r="I42">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15398002024170926</v>
+      </c>
+      <c r="J42">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19868126415102089</v>
-      </c>
-      <c r="J42">
+        <v>6.3516398389867632</v>
+      </c>
+      <c r="K42">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9548839557396338</v>
-      </c>
-      <c r="K42">
+        <v>1.3089341175044611</v>
+      </c>
+      <c r="L42">
         <f t="shared" ca="1" si="8"/>
-        <v>9.5043565032697508E-2</v>
-      </c>
-      <c r="L42">
+        <v>280.9560476482888</v>
+      </c>
+      <c r="M42">
         <f t="shared" ca="1" si="9"/>
-        <v>264.23510116909938</v>
-      </c>
-      <c r="M42">
+        <v>40</v>
+      </c>
+      <c r="N42">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
-      </c>
-      <c r="N42">
+        <v>0.10757732707647653</v>
+      </c>
+      <c r="O42">
         <f t="shared" ca="1" si="11"/>
-        <v>9.4819156282591674E-2</v>
-      </c>
-      <c r="O42">
-        <f t="shared" ca="1" si="12"/>
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
@@ -3025,52 +3023,52 @@
         <v>30</v>
       </c>
       <c r="D43">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>3.999447497610971E-5</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4555734649158396</v>
+        <v>0.74870693344207506</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="14"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="15"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7452612488394301</v>
+        <v>8.6662555272422317</v>
       </c>
       <c r="I43">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0951703854230597E-2</v>
+      </c>
+      <c r="J43">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36450898598241743</v>
-      </c>
-      <c r="J43">
+        <v>6.2071129949371429</v>
+      </c>
+      <c r="K43">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2327053870609337</v>
-      </c>
-      <c r="K43">
+        <v>2.4859156704119889</v>
+      </c>
+      <c r="L43">
         <f t="shared" ca="1" si="8"/>
-        <v>12.468592394302728</v>
-      </c>
-      <c r="L43">
+        <v>199.07167801437313</v>
+      </c>
+      <c r="M43">
         <f t="shared" ca="1" si="9"/>
-        <v>70.903748624838613</v>
-      </c>
-      <c r="M43">
+        <v>38</v>
+      </c>
+      <c r="N43">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
-      </c>
-      <c r="N43">
+        <v>0.23397083257895612</v>
+      </c>
+      <c r="O43">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3369684300723687E-2</v>
-      </c>
-      <c r="O43">
-        <f t="shared" ca="1" si="12"/>
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
@@ -3079,59 +3077,59 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8233869414166835E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7889700917163995</v>
+        <v>0.1430446547732904</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="14"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="15"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9820977375706228</v>
+        <v>9.2415447470853209</v>
       </c>
       <c r="I44">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.34418107237756324</v>
+      </c>
+      <c r="J44">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17739432657606125</v>
-      </c>
-      <c r="J44">
+        <v>11.462655876374285</v>
+      </c>
+      <c r="K44">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6278232713926961</v>
-      </c>
-      <c r="K44">
+        <v>12.42277104956446</v>
+      </c>
+      <c r="L44">
         <f t="shared" ca="1" si="8"/>
-        <v>14.683221383026169</v>
-      </c>
-      <c r="L44">
+        <v>96.264521734466655</v>
+      </c>
+      <c r="M44">
         <f t="shared" ca="1" si="9"/>
-        <v>185.63024753354247</v>
-      </c>
-      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
-      </c>
-      <c r="N44">
+        <v>0.16452220232205172</v>
+      </c>
+      <c r="O44">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16527574657581803</v>
-      </c>
-      <c r="O44">
-        <f t="shared" ca="1" si="12"/>
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
@@ -3144,55 +3142,55 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.2658783217233498E-7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>9.5060479365627909E-7</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49417749769069913</v>
+        <v>1.5767364233056147</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="14"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0855835579129902</v>
+        <v>8.8829012478370579</v>
       </c>
       <c r="I45">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38548722419663894</v>
+      </c>
+      <c r="J45">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20250314847316314</v>
-      </c>
-      <c r="J45">
+        <v>10.552450332279896</v>
+      </c>
+      <c r="K45">
         <f t="shared" ca="1" si="7"/>
-        <v>7.5594569333527772</v>
-      </c>
-      <c r="K45">
+        <v>17.748047909630568</v>
+      </c>
+      <c r="L45">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9575124721251314</v>
-      </c>
-      <c r="L45">
+        <v>325.54732666939583</v>
+      </c>
+      <c r="M45">
         <f t="shared" ca="1" si="9"/>
-        <v>356.61011970011123</v>
-      </c>
-      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="N45">
+        <v>0.35822966196281181</v>
+      </c>
+      <c r="O45">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7178536262408786E-2</v>
-      </c>
-      <c r="O45">
-        <f t="shared" ca="1" si="12"/>
-        <v>133</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
@@ -3208,52 +3206,52 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9075880019678539</v>
+        <v>1.9513033496377343</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="14"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="15"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5315541528933325</v>
+        <v>6.0219819837234541</v>
       </c>
       <c r="I46">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.7203991257449094E-2</v>
+      </c>
+      <c r="J46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20683336077482056</v>
-      </c>
-      <c r="J46">
+        <v>7.2529887426406239</v>
+      </c>
+      <c r="K46">
         <f t="shared" ca="1" si="7"/>
-        <v>9.2746993914245586</v>
-      </c>
-      <c r="K46">
+        <v>4.8681881954983242</v>
+      </c>
+      <c r="L46">
         <f t="shared" ca="1" si="8"/>
-        <v>15.453412259547699</v>
-      </c>
-      <c r="L46">
+        <v>434.32275772219015</v>
+      </c>
+      <c r="M46">
         <f t="shared" ca="1" si="9"/>
-        <v>251.10419881811504</v>
-      </c>
-      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="N46">
+        <v>0.31006268130716291</v>
+      </c>
+      <c r="O46">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8532792864370468E-2</v>
-      </c>
-      <c r="O46">
-        <f t="shared" ca="1" si="12"/>
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
@@ -3262,59 +3260,59 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.053784411990634E-6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9280683839033577</v>
+        <v>1.3075835740352204</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="15"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6441483426514658</v>
+        <v>7.6823852056991138</v>
       </c>
       <c r="I47">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.25145017651631746</v>
+      </c>
+      <c r="J47">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37417277943668731</v>
-      </c>
-      <c r="J47">
+        <v>9.8757497577500892</v>
+      </c>
+      <c r="K47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.86790261120237</v>
-      </c>
-      <c r="K47">
+        <v>9.1362993842376827</v>
+      </c>
+      <c r="L47">
         <f t="shared" ca="1" si="8"/>
-        <v>11.691039625786159</v>
-      </c>
-      <c r="L47">
+        <v>279.74511934578555</v>
+      </c>
+      <c r="M47">
         <f t="shared" ca="1" si="9"/>
-        <v>261.1756191865295</v>
-      </c>
-      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
-      </c>
-      <c r="N47">
+        <v>0.21201317977484702</v>
+      </c>
+      <c r="O47">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35057427742581432</v>
-      </c>
-      <c r="O47">
-        <f t="shared" ca="1" si="12"/>
-        <v>159</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
@@ -3323,59 +3321,59 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5.5718574893192694E-7</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56797482585267245</v>
+        <v>2.1898201993069921E-2</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="14"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="15"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5157673634677806</v>
+        <v>6.7379818089234185</v>
       </c>
       <c r="I48">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15765058150737557</v>
+      </c>
+      <c r="J48">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21583525664436026</v>
-      </c>
-      <c r="J48">
+        <v>9.5053356774228437E-2</v>
+      </c>
+      <c r="K48">
         <f t="shared" ca="1" si="7"/>
-        <v>10.155951696192457</v>
-      </c>
-      <c r="K48">
+        <v>19.222044339379078</v>
+      </c>
+      <c r="L48">
         <f t="shared" ca="1" si="8"/>
-        <v>13.962375281713504</v>
-      </c>
-      <c r="L48">
+        <v>182.82945326802269</v>
+      </c>
+      <c r="M48">
         <f t="shared" ca="1" si="9"/>
-        <v>310.92122400803754</v>
-      </c>
-      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="N48">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="N48">
+        <v>0.37896119467606459</v>
+      </c>
+      <c r="O48">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16062977055576794</v>
-      </c>
-      <c r="O48">
-        <f t="shared" ca="1" si="12"/>
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
@@ -3384,59 +3382,59 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.7206304126358905E-6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8188017239447497</v>
+        <v>1.4243904365280093</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="14"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="15"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9156630779966779</v>
+        <v>8.2798359813138411</v>
       </c>
       <c r="I49">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.34392250311427547</v>
+      </c>
+      <c r="J49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19365120991075752</v>
-      </c>
-      <c r="J49">
+        <v>0.41715982559831799</v>
+      </c>
+      <c r="K49">
         <f t="shared" ca="1" si="7"/>
-        <v>1.8969245615764136</v>
-      </c>
-      <c r="K49">
+        <v>0.88600241368930632</v>
+      </c>
+      <c r="L49">
         <f t="shared" ca="1" si="8"/>
-        <v>10.377301305253951</v>
-      </c>
-      <c r="L49">
+        <v>265.41536029773386</v>
+      </c>
+      <c r="M49">
         <f t="shared" ca="1" si="9"/>
-        <v>438.61747059139486</v>
-      </c>
-      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="N49">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="N49">
+        <v>6.1979183799032507E-2</v>
+      </c>
+      <c r="O49">
         <f t="shared" ca="1" si="11"/>
-        <v>0.360094304465645</v>
-      </c>
-      <c r="O49">
-        <f t="shared" ca="1" si="12"/>
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
@@ -3445,59 +3443,59 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.3442288153199174E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5427605843709988</v>
+        <v>1.8063470901575212</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="14"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="15"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0567991997721791</v>
+        <v>6.0677274613527121</v>
       </c>
       <c r="I50">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.2718462338791714</v>
+      </c>
+      <c r="J50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16187996709742003</v>
-      </c>
-      <c r="J50">
+        <v>2.7229885688623088</v>
+      </c>
+      <c r="K50">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3744272854444768</v>
-      </c>
-      <c r="K50">
+        <v>13.950298134942919</v>
+      </c>
+      <c r="L50">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6011727854445637</v>
-      </c>
-      <c r="L50">
+        <v>62.744915354194795</v>
+      </c>
+      <c r="M50">
         <f t="shared" ca="1" si="9"/>
-        <v>140.68090991527586</v>
-      </c>
-      <c r="M50">
+        <v>26</v>
+      </c>
+      <c r="N50">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
-      </c>
-      <c r="N50">
+        <v>0.29592080139555416</v>
+      </c>
+      <c r="O50">
         <f t="shared" ca="1" si="11"/>
-        <v>0.3203026484281874</v>
-      </c>
-      <c r="O50">
-        <f t="shared" ca="1" si="12"/>
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
@@ -3506,59 +3504,59 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.1641260294104884E-4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9966608598183178</v>
+        <v>0.16564709347938911</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="15"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4865339505846684</v>
+        <v>8.9294390416265426</v>
       </c>
       <c r="I51">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.4728525477595009E-2</v>
+      </c>
+      <c r="J51">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32711597811424259</v>
-      </c>
-      <c r="J51">
+        <v>3.9054557267555396</v>
+      </c>
+      <c r="K51">
         <f t="shared" ca="1" si="7"/>
-        <v>9.3546069020863882</v>
-      </c>
-      <c r="K51">
+        <v>15.975263072360713</v>
+      </c>
+      <c r="L51">
         <f t="shared" ca="1" si="8"/>
-        <v>17.086794081378081</v>
-      </c>
-      <c r="L51">
+        <v>305.69371686138663</v>
+      </c>
+      <c r="M51">
         <f t="shared" ca="1" si="9"/>
-        <v>370.80024834037692</v>
-      </c>
-      <c r="M51">
+        <v>45</v>
+      </c>
+      <c r="N51">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
-      </c>
-      <c r="N51">
+        <v>0.30535915574767725</v>
+      </c>
+      <c r="O51">
         <f t="shared" ca="1" si="11"/>
-        <v>0.15965111256359299</v>
-      </c>
-      <c r="O51">
-        <f t="shared" ca="1" si="12"/>
-        <v>177</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
@@ -3571,55 +3569,55 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9860949173573683E-4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4.7206304126358905E-6</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5062535929439957</v>
+        <v>1.5572497391844375</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="15"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8831530518099822</v>
+        <v>7.4589925545492308</v>
       </c>
       <c r="I52">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11752417649986252</v>
+      </c>
+      <c r="J52">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34820410969745297</v>
-      </c>
-      <c r="J52">
+        <v>4.0947701529262428</v>
+      </c>
+      <c r="K52">
         <f t="shared" ca="1" si="7"/>
-        <v>5.069889969279501</v>
-      </c>
-      <c r="K52">
+        <v>14.943544580736523</v>
+      </c>
+      <c r="L52">
         <f t="shared" ca="1" si="8"/>
-        <v>18.225095180669097</v>
-      </c>
-      <c r="L52">
+        <v>260.21844027443137</v>
+      </c>
+      <c r="M52">
         <f t="shared" ca="1" si="9"/>
-        <v>495.18174417420602</v>
-      </c>
-      <c r="M52">
+        <v>29</v>
+      </c>
+      <c r="N52">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
-      </c>
-      <c r="N52">
+        <v>0.10677683662022994</v>
+      </c>
+      <c r="O52">
         <f t="shared" ca="1" si="11"/>
-        <v>0.17775130506902637</v>
-      </c>
-      <c r="O52">
-        <f t="shared" ca="1" si="12"/>
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
@@ -3632,55 +3630,55 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.5060479365627909E-7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5.5718574893192694E-7</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8529955668210936</v>
+        <v>1.0459158900214764</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="14"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="15"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4881538319773115</v>
+        <v>9.0166074126754729</v>
       </c>
       <c r="I53">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.37686490256856259</v>
+      </c>
+      <c r="J53">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4962486016192482E-2</v>
-      </c>
-      <c r="J53">
+        <v>5.4751544188333074</v>
+      </c>
+      <c r="K53">
         <f t="shared" ca="1" si="7"/>
-        <v>9.4861667347920076</v>
-      </c>
-      <c r="K53">
+        <v>12.370053506478778</v>
+      </c>
+      <c r="L53">
         <f t="shared" ca="1" si="8"/>
-        <v>13.765350808781548</v>
-      </c>
-      <c r="L53">
+        <v>320.02313721862902</v>
+      </c>
+      <c r="M53">
         <f t="shared" ca="1" si="9"/>
-        <v>469.78025611039772</v>
-      </c>
-      <c r="M53">
+        <v>17</v>
+      </c>
+      <c r="N53">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
-      </c>
-      <c r="N53">
+        <v>7.6900115219320192E-2</v>
+      </c>
+      <c r="O53">
         <f t="shared" ca="1" si="11"/>
-        <v>0.30828860289262039</v>
-      </c>
-      <c r="O53">
-        <f t="shared" ca="1" si="12"/>
-        <v>150</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
@@ -3689,59 +3687,59 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.3740419750125134E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4283317667446422</v>
+        <v>0.99579386038577333</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="14"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="15"/>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0879283879299129</v>
+        <v>5.8933113282563809</v>
       </c>
       <c r="I54">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.21633915071828391</v>
+      </c>
+      <c r="J54">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2250545071670797</v>
-      </c>
-      <c r="J54">
+        <v>0.592265316221261</v>
+      </c>
+      <c r="K54">
         <f t="shared" ca="1" si="7"/>
-        <v>9.12050887319635</v>
-      </c>
-      <c r="K54">
+        <v>10.298884794956127</v>
+      </c>
+      <c r="L54">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2958449480359602</v>
-      </c>
-      <c r="L54">
+        <v>226.1924381624838</v>
+      </c>
+      <c r="M54">
         <f t="shared" ca="1" si="9"/>
-        <v>101.01054678192193</v>
-      </c>
-      <c r="M54">
+        <v>34</v>
+      </c>
+      <c r="N54">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
-      </c>
-      <c r="N54">
+        <v>0.1890229067601667</v>
+      </c>
+      <c r="O54">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35997113046068602</v>
-      </c>
-      <c r="O54">
-        <f t="shared" ca="1" si="12"/>
-        <v>129</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.45">
@@ -3754,55 +3752,55 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D55">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.5060479365627909E-7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8.053784411990634E-6</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0879112796880943</v>
+        <v>0.85381596538113591</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="14"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="15"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="1"/>
-        <v>8.205990621084668</v>
+        <v>7.628291827678721</v>
       </c>
       <c r="I55">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12246095864917247</v>
+      </c>
+      <c r="J55">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38221291235292643</v>
-      </c>
-      <c r="J55">
+        <v>9.7028702885483256</v>
+      </c>
+      <c r="K55">
         <f t="shared" ca="1" si="7"/>
-        <v>9.8051861975901229</v>
-      </c>
-      <c r="K55">
+        <v>16.233456727460194</v>
+      </c>
+      <c r="L55">
         <f t="shared" ca="1" si="8"/>
-        <v>9.5662329598792795</v>
-      </c>
-      <c r="L55">
+        <v>406.74010628597682</v>
+      </c>
+      <c r="M55">
         <f t="shared" ca="1" si="9"/>
-        <v>387.61231720955817</v>
-      </c>
-      <c r="M55">
+        <v>49</v>
+      </c>
+      <c r="N55">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
-      </c>
-      <c r="N55">
+        <v>0.20622356128917502</v>
+      </c>
+      <c r="O55">
         <f t="shared" ca="1" si="11"/>
-        <v>0.1574271169817511</v>
-      </c>
-      <c r="O55">
-        <f t="shared" ca="1" si="12"/>
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
@@ -3811,59 +3809,59 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.5060479365627909E-7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70921356083216502</v>
+        <v>0.21627493708721557</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="14"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="15"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6854793933967898</v>
+        <v>6.5880367818501551</v>
       </c>
       <c r="I56">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.28284054974795403</v>
+      </c>
+      <c r="J56">
         <f t="shared" ca="1" si="6"/>
-        <v>0.3682131983241943</v>
-      </c>
-      <c r="J56">
+        <v>1.9994985719910758</v>
+      </c>
+      <c r="K56">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1294755950786186</v>
-      </c>
-      <c r="K56">
+        <v>10.700373047156068</v>
+      </c>
+      <c r="L56">
         <f t="shared" ca="1" si="8"/>
-        <v>8.9583993571118228</v>
-      </c>
-      <c r="L56">
+        <v>265.30623821782808</v>
+      </c>
+      <c r="M56">
         <f t="shared" ca="1" si="9"/>
-        <v>50.359418585467992</v>
-      </c>
-      <c r="M56">
+        <v>43</v>
+      </c>
+      <c r="N56">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="N56">
+        <v>0.34499196140055216</v>
+      </c>
+      <c r="O56">
         <f t="shared" ca="1" si="11"/>
-        <v>0.24258533814687244</v>
-      </c>
-      <c r="O56">
-        <f t="shared" ca="1" si="12"/>
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.45">
@@ -3876,15 +3874,15 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D57">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.6218100973589245E-6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.3740419750125134E-5</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6004873968053048</v>
+        <v>0.67680650311419555</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="14"/>
@@ -3892,39 +3890,39 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="15"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5572181587635132</v>
+        <v>7.1884038398569778</v>
       </c>
       <c r="I57">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.37985684333629144</v>
+      </c>
+      <c r="J57">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39070983751496496</v>
-      </c>
-      <c r="J57">
+        <v>4.6603849671533562</v>
+      </c>
+      <c r="K57">
         <f t="shared" ca="1" si="7"/>
-        <v>11.850015897975855</v>
-      </c>
-      <c r="K57">
+        <v>10.346063031449251</v>
+      </c>
+      <c r="L57">
         <f t="shared" ca="1" si="8"/>
-        <v>1.666764803399452</v>
-      </c>
-      <c r="L57">
+        <v>300.73222790303794</v>
+      </c>
+      <c r="M57">
         <f t="shared" ca="1" si="9"/>
-        <v>147.7812615380505</v>
-      </c>
-      <c r="M57">
+        <v>67</v>
+      </c>
+      <c r="N57">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
-      </c>
-      <c r="N57">
+        <v>0.35968055949457134</v>
+      </c>
+      <c r="O57">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7991061385845838E-2</v>
-      </c>
-      <c r="O57">
-        <f t="shared" ca="1" si="12"/>
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.45">
@@ -3940,52 +3938,52 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4248660828137283</v>
+        <v>1.5323641097461538</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="14"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="15"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9277339028791385</v>
+        <v>8.2391497276757306</v>
       </c>
       <c r="I58">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10015711261099597</v>
+      </c>
+      <c r="J58">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33187289693768701</v>
-      </c>
-      <c r="J58">
+        <v>8.4954670858844885</v>
+      </c>
+      <c r="K58">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1288815853124667</v>
-      </c>
-      <c r="K58">
+        <v>17.825520462216133</v>
+      </c>
+      <c r="L58">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5966561165332767</v>
-      </c>
-      <c r="L58">
+        <v>122.18362009938021</v>
+      </c>
+      <c r="M58">
         <f t="shared" ca="1" si="9"/>
-        <v>136.00831084315647</v>
-      </c>
-      <c r="M58">
+        <v>65</v>
+      </c>
+      <c r="N58">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="N58">
+        <v>7.2263346534059927E-2</v>
+      </c>
+      <c r="O58">
         <f t="shared" ca="1" si="11"/>
-        <v>0.10349603399567961</v>
-      </c>
-      <c r="O58">
-        <f t="shared" ca="1" si="12"/>
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
@@ -3994,59 +3992,59 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.3740419750125134E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72958903733497038</v>
+        <v>0.39771057222534839</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="14"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="15"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0303527015359091</v>
+        <v>6.7857738548238107</v>
       </c>
       <c r="I59">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17476259873224717</v>
+      </c>
+      <c r="J59">
         <f t="shared" ca="1" si="6"/>
-        <v>0.14056566280677688</v>
-      </c>
-      <c r="J59">
+        <v>9.1266753810120615</v>
+      </c>
+      <c r="K59">
         <f t="shared" ca="1" si="7"/>
-        <v>7.1706401642588986</v>
-      </c>
-      <c r="K59">
+        <v>3.636445997760176</v>
+      </c>
+      <c r="L59">
         <f t="shared" ca="1" si="8"/>
-        <v>18.62268630863209</v>
-      </c>
-      <c r="L59">
+        <v>397.77958979128829</v>
+      </c>
+      <c r="M59">
         <f t="shared" ca="1" si="9"/>
-        <v>118.04979773591333</v>
-      </c>
-      <c r="M59">
+        <v>62</v>
+      </c>
+      <c r="N59">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="N59">
+        <v>0.30099605650546668</v>
+      </c>
+      <c r="O59">
         <f t="shared" ca="1" si="11"/>
-        <v>0.13309181345267318</v>
-      </c>
-      <c r="O59">
-        <f t="shared" ca="1" si="12"/>
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
@@ -4059,55 +4057,55 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D60">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9860949173573683E-4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8.053784411990634E-6</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2876892428203264E-2</v>
+        <v>1.9467131824482335</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="14"/>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="15"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="1"/>
-        <v>5.838312215308747</v>
+        <v>5.5391511984967021</v>
       </c>
       <c r="I60">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.19526317483844796</v>
+      </c>
+      <c r="J60">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2141350884586069</v>
-      </c>
-      <c r="J60">
+        <v>3.3008902289068316</v>
+      </c>
+      <c r="K60">
         <f t="shared" ca="1" si="7"/>
-        <v>8.37509932000909</v>
-      </c>
-      <c r="K60">
+        <v>18.463428563252041</v>
+      </c>
+      <c r="L60">
         <f t="shared" ca="1" si="8"/>
-        <v>3.8828231996788753</v>
-      </c>
-      <c r="L60">
+        <v>220.50891335709534</v>
+      </c>
+      <c r="M60">
         <f t="shared" ca="1" si="9"/>
-        <v>488.06375665536319</v>
-      </c>
-      <c r="M60">
+        <v>59</v>
+      </c>
+      <c r="N60">
         <f t="shared" ca="1" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="N60">
+        <v>5.128475687443633E-2</v>
+      </c>
+      <c r="O60">
         <f t="shared" ca="1" si="11"/>
-        <v>0.31803009414775346</v>
-      </c>
-      <c r="O60">
-        <f t="shared" ca="1" si="12"/>
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
@@ -4116,59 +4114,59 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.3442288153199174E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47451761511872792</v>
+        <v>1.3839978604235428</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="14"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="15"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2019932219816756</v>
+        <v>8.2262494061535651</v>
       </c>
       <c r="I61">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.9529738538026515E-2</v>
+      </c>
+      <c r="J61">
         <f t="shared" ca="1" si="6"/>
-        <v>0.14421988672061686</v>
-      </c>
-      <c r="J61">
+        <v>10.313256634247519</v>
+      </c>
+      <c r="K61">
         <f t="shared" ca="1" si="7"/>
-        <v>2.0071861784004019</v>
-      </c>
-      <c r="K61">
+        <v>5.1294345402099744</v>
+      </c>
+      <c r="L61">
         <f t="shared" ca="1" si="8"/>
-        <v>19.18923482434133</v>
-      </c>
-      <c r="L61">
+        <v>383.0079680518399</v>
+      </c>
+      <c r="M61">
         <f t="shared" ca="1" si="9"/>
-        <v>202.7890150805747</v>
-      </c>
-      <c r="M61">
+        <v>48</v>
+      </c>
+      <c r="N61">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="N61">
+        <v>6.8434832906644344E-2</v>
+      </c>
+      <c r="O61">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25396348196925056</v>
-      </c>
-      <c r="O61">
-        <f t="shared" ca="1" si="12"/>
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.45">
@@ -4184,52 +4182,52 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6473224171794534</v>
+        <v>0.94973459230081292</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="14"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="15"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2317502982438917</v>
+        <v>9.0612207201372055</v>
       </c>
       <c r="I62">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.23020334054038794</v>
+      </c>
+      <c r="J62">
         <f t="shared" ca="1" si="6"/>
-        <v>0.29016798504484936</v>
-      </c>
-      <c r="J62">
+        <v>0.38204238141855118</v>
+      </c>
+      <c r="K62">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2760138462412556</v>
-      </c>
-      <c r="K62">
+        <v>9.5510189930997154</v>
+      </c>
+      <c r="L62">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1773171829981308</v>
-      </c>
-      <c r="L62">
+        <v>386.62700569597303</v>
+      </c>
+      <c r="M62">
         <f t="shared" ca="1" si="9"/>
-        <v>408.96702951706266</v>
-      </c>
-      <c r="M62">
+        <v>42</v>
+      </c>
+      <c r="N62">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="N62">
+        <v>0.27241292445808213</v>
+      </c>
+      <c r="O62">
         <f t="shared" ca="1" si="11"/>
-        <v>0.10917853268694458</v>
-      </c>
-      <c r="O62">
-        <f t="shared" ca="1" si="12"/>
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
@@ -4238,59 +4236,59 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.1641260294104884E-4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0063275054331378</v>
+        <v>1.5412576945711769</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="15"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0084655561361622</v>
+        <v>5.583844383352953</v>
       </c>
       <c r="I63">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.523747735816733E-2</v>
+      </c>
+      <c r="J63">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5422152930651428E-2</v>
-      </c>
-      <c r="J63">
+        <v>11.340367996535916</v>
+      </c>
+      <c r="K63">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0470807082787221</v>
-      </c>
-      <c r="K63">
+        <v>17.44779710477895</v>
+      </c>
+      <c r="L63">
         <f t="shared" ca="1" si="8"/>
-        <v>19.926290625765056</v>
-      </c>
-      <c r="L63">
+        <v>251.34478001721303</v>
+      </c>
+      <c r="M63">
         <f t="shared" ca="1" si="9"/>
-        <v>396.00938883261159</v>
-      </c>
-      <c r="M63">
+        <v>19</v>
+      </c>
+      <c r="N63">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
-      </c>
-      <c r="N63">
+        <v>0.1592382037397122</v>
+      </c>
+      <c r="O63">
         <f t="shared" ca="1" si="11"/>
-        <v>0.38016209447288757</v>
-      </c>
-      <c r="O63">
-        <f t="shared" ca="1" si="12"/>
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.45">
@@ -4299,59 +4297,59 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2.3442288153199174E-5</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2906190161117068</v>
+        <v>0.92797702829805495</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="14"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="15"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9924437563016699</v>
+        <v>6.5534572711962671</v>
       </c>
       <c r="I64">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.6702272307828185E-2</v>
+      </c>
+      <c r="J64">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26168780268308156</v>
-      </c>
-      <c r="J64">
+        <v>11.560173313663494</v>
+      </c>
+      <c r="K64">
         <f t="shared" ca="1" si="7"/>
-        <v>5.8218565106760769</v>
-      </c>
-      <c r="K64">
+        <v>9.1999934625571296</v>
+      </c>
+      <c r="L64">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8016244695393313</v>
-      </c>
-      <c r="L64">
+        <v>264.03031359804851</v>
+      </c>
+      <c r="M64">
         <f t="shared" ca="1" si="9"/>
-        <v>251.56230908829045</v>
-      </c>
-      <c r="M64">
+        <v>40</v>
+      </c>
+      <c r="N64">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="N64">
+        <v>7.9711256248532605E-2</v>
+      </c>
+      <c r="O64">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32812779590922658</v>
-      </c>
-      <c r="O64">
-        <f t="shared" ca="1" si="12"/>
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.45">
@@ -4360,59 +4358,59 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2.3442288153199174E-5</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39126682300528165</v>
+        <v>1.9882837860322657</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="15"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1784469800000288</v>
+        <v>8.8485319010361465</v>
       </c>
       <c r="I65">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1809632367414471</v>
+      </c>
+      <c r="J65">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5171066106338443E-2</v>
-      </c>
-      <c r="J65">
+        <v>5.9004930215558833</v>
+      </c>
+      <c r="K65">
         <f t="shared" ca="1" si="7"/>
-        <v>10.367518637273237</v>
-      </c>
-      <c r="K65">
+        <v>12.622429175152035</v>
+      </c>
+      <c r="L65">
         <f t="shared" ca="1" si="8"/>
-        <v>14.654737153840722</v>
-      </c>
-      <c r="L65">
+        <v>129.29642596773618</v>
+      </c>
+      <c r="M65">
         <f t="shared" ca="1" si="9"/>
-        <v>266.51287485578047</v>
-      </c>
-      <c r="M65">
+        <v>24</v>
+      </c>
+      <c r="N65">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="N65">
+        <v>0.37689732419176158</v>
+      </c>
+      <c r="O65">
         <f t="shared" ca="1" si="11"/>
-        <v>7.5237360807586279E-2</v>
-      </c>
-      <c r="O65">
-        <f t="shared" ca="1" si="12"/>
-        <v>195</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.45">
@@ -4421,59 +4419,59 @@
       </c>
       <c r="B66">
         <f t="shared" ref="B66:B100" ca="1" si="16">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8233869414166835E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E100" ca="1" si="17">RAND()*(2-0.01)+0.01</f>
-        <v>1.8179757890472321</v>
+        <v>0.11601096238250817</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="14"/>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="15"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H100" ca="1" si="18">RAND()*(9.5-5.5)+5.5</f>
-        <v>7.8627599471118277</v>
+        <v>8.4282616345679173</v>
       </c>
       <c r="I66">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.31596871479949873</v>
+      </c>
+      <c r="J66">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38573994808212397</v>
-      </c>
-      <c r="J66">
+        <v>11.736424959211142</v>
+      </c>
+      <c r="K66">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8452921611385218</v>
-      </c>
-      <c r="K66">
+        <v>4.230829895552275</v>
+      </c>
+      <c r="L66">
         <f t="shared" ca="1" si="8"/>
-        <v>4.2263153886874294</v>
-      </c>
-      <c r="L66">
+        <v>370.15383312769802</v>
+      </c>
+      <c r="M66">
         <f t="shared" ca="1" si="9"/>
-        <v>367.24818011107232</v>
-      </c>
-      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="N66">
+        <v>0.26884017493107937</v>
+      </c>
+      <c r="O66">
         <f t="shared" ca="1" si="11"/>
-        <v>0.14294444317605659</v>
-      </c>
-      <c r="O66">
-        <f t="shared" ca="1" si="12"/>
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.45">
@@ -4485,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C100" ca="1" si="19">(IF(B67,  RANDBETWEEN(25, 40), 0))</f>
+        <f t="shared" ref="C67:C100" ca="1" si="19">(IF(B67,  RANDBETWEEN(30, 40), 0))</f>
         <v>0</v>
       </c>
       <c r="D67">
@@ -4494,47 +4492,47 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3728742474560693</v>
+        <v>3.5676936716603436E-2</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="15"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="18"/>
-        <v>6.7855451517770362</v>
+        <v>6.2875405399781252</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I100" ca="1" si="21">RAND()*(0.4-0.05)+0.05</f>
-        <v>0.20037924859747652</v>
+        <v>7.5856543381390862E-2</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J100" ca="1" si="22">RAND()*(12-0)+0</f>
-        <v>5.7298112266953458</v>
+        <v>0.21896509746246773</v>
       </c>
       <c r="K67">
         <f t="shared" ref="K67:K100" ca="1" si="23">RAND()*(20-0)+0</f>
-        <v>8.5263511018961786</v>
+        <v>3.8417697765958669</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L100" ca="1" si="24">RAND()*(500-50)+50</f>
-        <v>416.06897858652206</v>
+        <v>433.95421106576288</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M100" ca="1" si="25">INT(RAND()*(70-1)+1)</f>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N100" ca="1" si="26">RAND()*(0.4-0.05)+0.05</f>
-        <v>0.2123556533760626</v>
+        <v>0.31566020321612587</v>
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O100" ca="1" si="27">INT(RANDBETWEEN(121, 201))</f>
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.45">
@@ -4547,55 +4545,55 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="19"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="20"/>
-        <v>3.2658783217233498E-7</v>
+        <v>3.999447497610971E-5</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="17"/>
-        <v>9.6425869454708948E-2</v>
+        <v>1.9521150071092153</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="15"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="18"/>
-        <v>7.4936607684028225</v>
+        <v>8.2724723611973339</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="21"/>
-        <v>0.33825543950619957</v>
+        <v>0.28568867900617279</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="22"/>
-        <v>4.2346072259850871</v>
+        <v>11.804230973510982</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="23"/>
-        <v>7.2365604418710721</v>
+        <v>2.2838368861280256</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="24"/>
-        <v>288.1125467191747</v>
+        <v>418.55662931108282</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="25"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="26"/>
-        <v>0.32181901358387527</v>
+        <v>0.28508260237013683</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="27"/>
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.45">
@@ -4616,47 +4614,47 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1185503446165879</v>
+        <v>0.13735521011642135</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="14"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="15"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="18"/>
-        <v>6.0965643795957156</v>
+        <v>6.5580330987674049</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="21"/>
-        <v>0.15896566384678001</v>
+        <v>0.29122906496024292</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="22"/>
-        <v>7.6351635550711041</v>
+        <v>8.1759270225598417</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="23"/>
-        <v>11.088841088179944</v>
+        <v>14.511484519458167</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="24"/>
-        <v>166.33932753319749</v>
+        <v>135.95703073597474</v>
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="25"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="26"/>
-        <v>0.39699496957716041</v>
+        <v>0.32784741002531637</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="27"/>
-        <v>193</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.45">
@@ -4665,59 +4663,59 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1.6218100973589245E-6</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="17"/>
-        <v>0.36343094014348115</v>
+        <v>1.8844906662230532</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="14"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="15"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="18"/>
-        <v>7.3783881543948215</v>
+        <v>5.6511794118286485</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="21"/>
-        <v>0.34961925737815674</v>
+        <v>0.12411802391003801</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="22"/>
-        <v>10.450406000872734</v>
+        <v>2.0364985075147075</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="23"/>
-        <v>16.469241479182351</v>
+        <v>6.631072733342009</v>
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="24"/>
-        <v>240.29567629735462</v>
+        <v>472.06127118371859</v>
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="26"/>
-        <v>0.39153728205154908</v>
+        <v>0.19143892682614266</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="27"/>
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.45">
@@ -4730,15 +4728,15 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="19"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="20"/>
-        <v>3.999447497610971E-5</v>
+        <v>5.5718574893192694E-7</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="17"/>
-        <v>0.95038839187644464</v>
+        <v>1.0788456156962556</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="14"/>
@@ -4746,39 +4744,39 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="15"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="18"/>
-        <v>8.5433630539550585</v>
+        <v>9.2935270319513741</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="21"/>
-        <v>0.20402105364657042</v>
+        <v>7.9556935906587273E-2</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="22"/>
-        <v>7.2566306886176744</v>
+        <v>8.6712170645904934</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="23"/>
-        <v>16.80183329674162</v>
+        <v>11.595015590957079</v>
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="24"/>
-        <v>192.57946778903366</v>
+        <v>59.577450895953113</v>
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="25"/>
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="26"/>
-        <v>0.20030978062424781</v>
+        <v>0.26054215478002613</v>
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="27"/>
-        <v>159</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.45">
@@ -4787,59 +4785,59 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1.9142559250210754E-7</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3282795280571586E-2</v>
+        <v>0.77523567662356374</v>
       </c>
       <c r="F72">
         <f t="shared" ref="F72:F100" ca="1" si="28">SUM((INT(RAND()*(-5-0)+0)), G72)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="15"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="18"/>
-        <v>8.3687526696305135</v>
+        <v>8.2375098390681529</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="21"/>
-        <v>0.34173640955612</v>
+        <v>0.3264256488282305</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="22"/>
-        <v>5.3125251010248311</v>
+        <v>3.6900560183698707</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="23"/>
-        <v>8.2599573647564544</v>
+        <v>9.2537174417091634</v>
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="24"/>
-        <v>493.60079424539043</v>
+        <v>209.81398419366059</v>
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="25"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="26"/>
-        <v>0.25924856177712086</v>
+        <v>0.33970668355714823</v>
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="27"/>
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.45">
@@ -4860,47 +4858,47 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1233098078823378</v>
+        <v>1.2040146346038414</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="28"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="15"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="18"/>
-        <v>6.4332512870344418</v>
+        <v>7.2667465603970864</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="21"/>
-        <v>0.13412835013167812</v>
+        <v>0.35101708779393054</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="22"/>
-        <v>1.3603683444666954</v>
+        <v>5.7083295725238195</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="23"/>
-        <v>1.0858179840370719</v>
+        <v>11.586680677190708</v>
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="24"/>
-        <v>350.08759170827176</v>
+        <v>457.84915500937012</v>
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="25"/>
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="26"/>
-        <v>9.9909884850503075E-2</v>
+        <v>0.18609929870434672</v>
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="27"/>
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.45">
@@ -4909,59 +4907,59 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="19"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="20"/>
-        <v>6.8233869414166835E-5</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="17"/>
-        <v>1.405956946529195</v>
+        <v>1.8733727231388575</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="28"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="15"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="18"/>
-        <v>9.4876783792192434</v>
+        <v>6.0516543466855959</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="21"/>
-        <v>0.16037961738632223</v>
+        <v>0.132934413828142</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="22"/>
-        <v>11.03267541830124</v>
+        <v>11.412050009706693</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="23"/>
-        <v>16.611752072617485</v>
+        <v>12.334911115851579</v>
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="24"/>
-        <v>224.12923754934891</v>
+        <v>323.43806088546637</v>
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="25"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="26"/>
-        <v>0.11905158130857114</v>
+        <v>5.9867812503112211E-2</v>
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="27"/>
-        <v>192</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.45">
@@ -4970,59 +4968,59 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="19"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="20"/>
-        <v>5.7809604740571678E-4</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="17"/>
-        <v>8.0260660169472739E-2</v>
+        <v>0.90035733286817565</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="28"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="15"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="18"/>
-        <v>8.3642528008548567</v>
+        <v>7.9820106957732566</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="21"/>
-        <v>0.25055354254421469</v>
+        <v>9.3684673365527854E-2</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="22"/>
-        <v>11.491167102979656</v>
+        <v>9.3627708125967644</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="23"/>
-        <v>3.222081359471991</v>
+        <v>17.894054401028271</v>
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="24"/>
-        <v>423.60013635161869</v>
+        <v>176.62020661793832</v>
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="25"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N75">
         <f t="shared" ca="1" si="26"/>
-        <v>5.1185152383002447E-2</v>
+        <v>0.15148352358766021</v>
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="27"/>
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.45">
@@ -5031,59 +5029,59 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="19"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="20"/>
-        <v>9.5060479365627909E-7</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5012221874474561</v>
+        <v>0.54794507475396259</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="28"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="15"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="18"/>
-        <v>8.8297595937956714</v>
+        <v>5.7040797081944952</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="21"/>
-        <v>0.14244673327764162</v>
+        <v>0.37164419639200152</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="22"/>
-        <v>4.6611242280601068</v>
+        <v>0.17613703495711164</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="23"/>
-        <v>14.935155976722097</v>
+        <v>3.643277028522216</v>
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="24"/>
-        <v>497.74715143527453</v>
+        <v>116.56089707900273</v>
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="25"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N76">
         <f t="shared" ca="1" si="26"/>
-        <v>0.18337364266843315</v>
+        <v>0.13820936977962439</v>
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="27"/>
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.45">
@@ -5092,59 +5090,59 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="19"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="20"/>
-        <v>1.9142559250210754E-7</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5442385053124872</v>
+        <v>1.4054611733210753</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="28"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="15"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="18"/>
-        <v>5.6880476955938395</v>
+        <v>9.2067745667921734</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="21"/>
-        <v>6.4060104979490703E-2</v>
+        <v>7.4050325273792406E-2</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="22"/>
-        <v>8.8887717087121914</v>
+        <v>0.25758795615847685</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="23"/>
-        <v>0.13899667879787136</v>
+        <v>9.5183646102423438</v>
       </c>
       <c r="L77">
         <f t="shared" ca="1" si="24"/>
-        <v>85.668827970220235</v>
+        <v>253.46035406390217</v>
       </c>
       <c r="M77">
         <f t="shared" ca="1" si="25"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N77">
         <f t="shared" ca="1" si="26"/>
-        <v>5.3445553426344258E-2</v>
+        <v>0.11544397751055124</v>
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="27"/>
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.45">
@@ -5165,47 +5163,47 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="17"/>
-        <v>0.63543882686809938</v>
+        <v>1.8283519836093063</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="28"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="15"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="18"/>
-        <v>6.2494964282142451</v>
+        <v>7.0152789200249837</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="21"/>
-        <v>0.39760696976000931</v>
+        <v>0.13538491969310784</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="22"/>
-        <v>11.019703862804032</v>
+        <v>4.1436621368942745</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="23"/>
-        <v>9.6849129764039166</v>
+        <v>11.921461683011117</v>
       </c>
       <c r="L78">
         <f t="shared" ca="1" si="24"/>
-        <v>74.551493037155467</v>
+        <v>468.81191099412302</v>
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="25"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N78">
         <f t="shared" ca="1" si="26"/>
-        <v>7.9020371635447575E-2</v>
+        <v>0.17291224387785908</v>
       </c>
       <c r="O78">
         <f t="shared" ca="1" si="27"/>
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.45">
@@ -5214,59 +5212,59 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1.3740419750125134E-5</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="17"/>
-        <v>0.56962822754971543</v>
+        <v>0.70961766978201579</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="28"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="15"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="18"/>
-        <v>6.4581905614967923</v>
+        <v>9.3376021949161885</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="21"/>
-        <v>0.25622833632843023</v>
+        <v>6.8004422414147267E-2</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="22"/>
-        <v>9.4265915987856754</v>
+        <v>1.120877789941229</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="23"/>
-        <v>5.5765636389678086</v>
+        <v>7.4743483932898531</v>
       </c>
       <c r="L79">
         <f t="shared" ca="1" si="24"/>
-        <v>291.06607388167862</v>
+        <v>326.49301125060032</v>
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="25"/>
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="N79">
         <f t="shared" ca="1" si="26"/>
-        <v>0.34917673193012555</v>
+        <v>0.22731214394223509</v>
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="27"/>
-        <v>123</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.45">
@@ -5275,23 +5273,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="19"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="20"/>
-        <v>3.999447497610971E-5</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="17"/>
-        <v>0.49948094583531849</v>
+        <v>0.79327179704690698</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="28"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="15"/>
@@ -5299,35 +5297,35 @@
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="18"/>
-        <v>7.9312794627064864</v>
+        <v>7.6130789251647482</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="21"/>
-        <v>0.15715301515398961</v>
+        <v>0.16795077815640508</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="22"/>
-        <v>8.7286193224389876</v>
+        <v>8.2628748857863954</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="23"/>
-        <v>5.0749865620860213</v>
+        <v>9.9358373750593199</v>
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="24"/>
-        <v>187.70529225936426</v>
+        <v>238.67584938488181</v>
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="25"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="26"/>
-        <v>0.33526404691949346</v>
+        <v>8.586251756134626E-2</v>
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="27"/>
-        <v>186</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.45">
@@ -5336,59 +5334,59 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>4.7206304126358905E-6</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="17"/>
-        <v>0.39689120635790875</v>
+        <v>1.4017562487013453</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="28"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="15"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="18"/>
-        <v>8.1345384376292298</v>
+        <v>6.6438145020444885</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="21"/>
-        <v>6.2467829034092232E-2</v>
+        <v>0.32737479139782849</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="22"/>
-        <v>5.6931673114786392</v>
+        <v>5.7845597061176957</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="23"/>
-        <v>15.3923091947591</v>
+        <v>17.468461596514359</v>
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="24"/>
-        <v>292.38930768442236</v>
+        <v>87.855191944191333</v>
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="25"/>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="26"/>
-        <v>5.7274533351499145E-2</v>
+        <v>0.38396739929043572</v>
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="27"/>
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.45">
@@ -5397,19 +5395,19 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>8.053784411990634E-6</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5222791590584455</v>
+        <v>1.1095308299206208</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="28"/>
@@ -5417,39 +5415,39 @@
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="15"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="18"/>
-        <v>7.6793660473717456</v>
+        <v>6.0709602202345048</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="21"/>
-        <v>0.21085260421364999</v>
+        <v>0.15853277712007158</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="22"/>
-        <v>8.3142516093506629</v>
+        <v>6.4262039332548602</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="23"/>
-        <v>1.5201465608284503</v>
+        <v>2.0262835188074346</v>
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="24"/>
-        <v>458.35225997710188</v>
+        <v>125.98400032791548</v>
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="25"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N82">
         <f t="shared" ca="1" si="26"/>
-        <v>0.15784034778439743</v>
+        <v>0.16440522573155336</v>
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="27"/>
-        <v>201</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.45">
@@ -5470,47 +5468,47 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="17"/>
-        <v>0.85555537292109041</v>
+        <v>1.5103443662843585</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="28"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="15"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="18"/>
-        <v>5.9420305647867799</v>
+        <v>8.0362578332611392</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="21"/>
-        <v>0.38695633533626483</v>
+        <v>0.27149586510766893</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="22"/>
-        <v>1.1122034899787754</v>
+        <v>0.61010187969253771</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="23"/>
-        <v>4.0316745900418471</v>
+        <v>4.3477944788222933</v>
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="24"/>
-        <v>130.94642321439235</v>
+        <v>58.984542352002563</v>
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="25"/>
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="26"/>
-        <v>0.27306784563736636</v>
+        <v>0.2056618412292206</v>
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="27"/>
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.45">
@@ -5519,59 +5517,59 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1.3740419750125134E-5</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="17"/>
-        <v>0.70642621768621838</v>
+        <v>1.6584033188058946</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="28"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="15"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="18"/>
-        <v>6.2163704284131249</v>
+        <v>7.8587691985548824</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="21"/>
-        <v>5.7767633239393039E-2</v>
+        <v>0.28127256929643552</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="22"/>
-        <v>10.599524839173471</v>
+        <v>10.968475627251626</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="23"/>
-        <v>16.224459725531421</v>
+        <v>2.658446127474674</v>
       </c>
       <c r="L84">
         <f t="shared" ca="1" si="24"/>
-        <v>249.03636257539978</v>
+        <v>207.26750495729803</v>
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="25"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="26"/>
-        <v>0.21539739895926041</v>
+        <v>0.25348697996164093</v>
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="27"/>
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.45">
@@ -5592,47 +5590,47 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43064143417269063</v>
+        <v>0.29060462599947556</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="28"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="15"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="18"/>
-        <v>8.3873521322087896</v>
+        <v>5.7729847214558934</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="21"/>
-        <v>7.4694229943714538E-2</v>
+        <v>0.30331677389776301</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="22"/>
-        <v>3.6820766640386382</v>
+        <v>3.7971369717418755</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="23"/>
-        <v>8.0886942837673423</v>
+        <v>15.677921450180389</v>
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="24"/>
-        <v>86.611998365418515</v>
+        <v>60.246444897284739</v>
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="25"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="26"/>
-        <v>0.1605655254275358</v>
+        <v>0.11353052134987955</v>
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="27"/>
-        <v>192</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.45">
@@ -5645,55 +5643,55 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="19"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="20"/>
-        <v>2.3442288153199174E-5</v>
+        <v>3.999447497610971E-5</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="17"/>
-        <v>0.59183662949670257</v>
+        <v>0.45996301459430317</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="28"/>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="18"/>
-        <v>7.6003939964992817</v>
+        <v>6.9451381587998764</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="21"/>
-        <v>0.11614063816755345</v>
+        <v>0.22377492741948651</v>
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="22"/>
-        <v>5.0444379262688859</v>
+        <v>6.3292358839422143</v>
       </c>
       <c r="K86">
         <f t="shared" ca="1" si="23"/>
-        <v>11.870725183158905</v>
+        <v>16.664405262115171</v>
       </c>
       <c r="L86">
         <f t="shared" ca="1" si="24"/>
-        <v>400.76780139350876</v>
+        <v>419.92025344109715</v>
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="25"/>
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="26"/>
-        <v>0.1990018215360711</v>
+        <v>0.29063296621220563</v>
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="27"/>
-        <v>191</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.45">
@@ -5702,59 +5700,59 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>2.3442288153199174E-5</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9004891827937529</v>
+        <v>1.5527728092844106</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="28"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="15"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="18"/>
-        <v>6.3625887869649436</v>
+        <v>9.1968158602212764</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="21"/>
-        <v>5.8322135059986659E-2</v>
+        <v>0.16080335589070591</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="22"/>
-        <v>0.49848748450482683</v>
+        <v>5.4323661749816381</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="23"/>
-        <v>7.8985304167075547</v>
+        <v>19.488994875370174</v>
       </c>
       <c r="L87">
         <f t="shared" ca="1" si="24"/>
-        <v>168.78932718333749</v>
+        <v>230.90614253138935</v>
       </c>
       <c r="M87">
         <f t="shared" ca="1" si="25"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N87">
         <f t="shared" ca="1" si="26"/>
-        <v>0.18424329875113826</v>
+        <v>0.35554219119153213</v>
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="27"/>
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.45">
@@ -5763,59 +5761,59 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="19"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="20"/>
-        <v>9.5060479365627909E-7</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="17"/>
-        <v>0.79319267732065168</v>
+        <v>1.2327739241358473</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="28"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="15"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="18"/>
-        <v>6.4137878247194653</v>
+        <v>8.8935101731444828</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="21"/>
-        <v>0.31326773959469151</v>
+        <v>0.27441882237391696</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="22"/>
-        <v>6.0568961448204188</v>
+        <v>9.7125107602288434</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="23"/>
-        <v>19.127365405958468</v>
+        <v>13.046356848821997</v>
       </c>
       <c r="L88">
         <f t="shared" ca="1" si="24"/>
-        <v>165.47459147508621</v>
+        <v>263.24876686265429</v>
       </c>
       <c r="M88">
         <f t="shared" ca="1" si="25"/>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="N88">
         <f t="shared" ca="1" si="26"/>
-        <v>0.38193042696135898</v>
+        <v>0.273980684017187</v>
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="27"/>
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.45">
@@ -5824,59 +5822,59 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="19"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="20"/>
-        <v>8.053784411990634E-6</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1463517901658824</v>
+        <v>0.16836179215328873</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="28"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="15"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="18"/>
-        <v>8.8431090221686688</v>
+        <v>7.543821754975494</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="21"/>
-        <v>0.2123020540241185</v>
+        <v>5.2414439268508285E-2</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="22"/>
-        <v>11.408885692984329</v>
+        <v>5.2994990643125508</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="23"/>
-        <v>14.435519767736569</v>
+        <v>10.605651297745675</v>
       </c>
       <c r="L89">
         <f t="shared" ca="1" si="24"/>
-        <v>383.51543550090241</v>
+        <v>439.15423244144955</v>
       </c>
       <c r="M89">
         <f t="shared" ca="1" si="25"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N89">
         <f t="shared" ca="1" si="26"/>
-        <v>0.35113860311447337</v>
+        <v>0.35805143810810747</v>
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="27"/>
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.45">
@@ -5889,55 +5887,55 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="19"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="20"/>
-        <v>2.7669416454114999E-6</v>
+        <v>3.999447497610971E-5</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="17"/>
-        <v>0.18680222825626883</v>
+        <v>0.41496239157729015</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="28"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="15"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="18"/>
-        <v>6.6604926017862178</v>
+        <v>5.9590748148826851</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="21"/>
-        <v>0.11101458286493887</v>
+        <v>0.17253586413511313</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="22"/>
-        <v>6.071130767217805</v>
+        <v>6.9955242021431792</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="23"/>
-        <v>14.102137418203339</v>
+        <v>1.6374303148758873</v>
       </c>
       <c r="L90">
         <f t="shared" ca="1" si="24"/>
-        <v>363.0046823635036</v>
+        <v>314.2126482074616</v>
       </c>
       <c r="M90">
         <f t="shared" ca="1" si="25"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N90">
         <f t="shared" ca="1" si="26"/>
-        <v>0.15905237493420649</v>
+        <v>8.9257740535903504E-2</v>
       </c>
       <c r="O90">
         <f t="shared" ca="1" si="27"/>
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.45">
@@ -5958,47 +5956,47 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="17"/>
-        <v>0.12503295477245235</v>
+        <v>0.18185841074679812</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="28"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="15"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="18"/>
-        <v>6.1370012952638824</v>
+        <v>5.8186492295707488</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="21"/>
-        <v>0.32189093245716538</v>
+        <v>0.1065187605493339</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="22"/>
-        <v>0.42287679810783985</v>
+        <v>4.2583517092588714</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="23"/>
-        <v>0.60689242730051829</v>
+        <v>15.893689911992045</v>
       </c>
       <c r="L91">
         <f t="shared" ca="1" si="24"/>
-        <v>397.75445440492484</v>
+        <v>404.24406180278737</v>
       </c>
       <c r="M91">
         <f t="shared" ca="1" si="25"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N91">
         <f t="shared" ca="1" si="26"/>
-        <v>0.29079436938729808</v>
+        <v>0.37590134493817784</v>
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="27"/>
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.45">
@@ -6007,55 +6005,55 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="19"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="20"/>
-        <v>5.7809604740571678E-4</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2147125327288517</v>
+        <v>1.4065442879957433</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="28"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="15"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="18"/>
-        <v>9.4777420884872363</v>
+        <v>9.2997051433620648</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="21"/>
-        <v>0.32370113168111492</v>
+        <v>0.37397788275243316</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="22"/>
-        <v>0.97102835188196579</v>
+        <v>10.23551652138349</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="23"/>
-        <v>10.789740116761726</v>
+        <v>10.986158653959087</v>
       </c>
       <c r="L92">
         <f t="shared" ca="1" si="24"/>
-        <v>118.45464461204971</v>
+        <v>477.28380573165623</v>
       </c>
       <c r="M92">
         <f t="shared" ca="1" si="25"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N92">
         <f t="shared" ca="1" si="26"/>
-        <v>0.33999206247737873</v>
+        <v>7.029857808565558E-2</v>
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="27"/>
@@ -6068,59 +6066,59 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>3.2658783217233498E-7</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="17"/>
-        <v>0.1930903286837099</v>
+        <v>0.53042995129062376</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="28"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="15"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="18"/>
-        <v>7.2300719911087752</v>
+        <v>8.2725910111268171</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="21"/>
-        <v>0.33772905176040491</v>
+        <v>0.16210869606435585</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="22"/>
-        <v>7.2603431457943897</v>
+        <v>9.3484193646487714</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="23"/>
-        <v>12.262434543381126</v>
+        <v>16.602781138217733</v>
       </c>
       <c r="L93">
         <f t="shared" ca="1" si="24"/>
-        <v>65.545539480426001</v>
+        <v>435.74643697506531</v>
       </c>
       <c r="M93">
         <f t="shared" ca="1" si="25"/>
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="N93">
         <f t="shared" ca="1" si="26"/>
-        <v>5.8029242659184299E-2</v>
+        <v>0.30124107620343848</v>
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="27"/>
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.45">
@@ -6133,55 +6131,55 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="19"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="20"/>
-        <v>5.5718574893192694E-7</v>
+        <v>3.2658783217233498E-7</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="17"/>
-        <v>1.7212341332573595</v>
+        <v>1.2327416185543589</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="28"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="18"/>
-        <v>5.5667710206524301</v>
+        <v>6.2846457180819195</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="21"/>
-        <v>0.17975117006893387</v>
+        <v>9.941442197884548E-2</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="22"/>
-        <v>5.1683196978420529</v>
+        <v>6.8425070015331428</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="23"/>
-        <v>12.528046941273242</v>
+        <v>13.799238455529352</v>
       </c>
       <c r="L94">
         <f t="shared" ca="1" si="24"/>
-        <v>458.17945921924917</v>
+        <v>113.80103026496968</v>
       </c>
       <c r="M94">
         <f t="shared" ca="1" si="25"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="26"/>
-        <v>0.20468703275013361</v>
+        <v>0.14079533187122711</v>
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="27"/>
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.45">
@@ -6202,47 +6200,47 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5925840348394416</v>
+        <v>1.2819400985206766</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="28"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="15"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="18"/>
-        <v>8.1817352166307202</v>
+        <v>8.5479140642277827</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="21"/>
-        <v>0.390900470391643</v>
+        <v>0.15030535679247181</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="22"/>
-        <v>2.9810612424486465</v>
+        <v>7.8661113906596487</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="23"/>
-        <v>15.105129738603784</v>
+        <v>6.5958862207488949</v>
       </c>
       <c r="L95">
         <f t="shared" ca="1" si="24"/>
-        <v>327.05886542861401</v>
+        <v>102.33796521312831</v>
       </c>
       <c r="M95">
         <f t="shared" ca="1" si="25"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N95">
         <f t="shared" ca="1" si="26"/>
-        <v>0.35739404909651645</v>
+        <v>0.10695198607329223</v>
       </c>
       <c r="O95">
         <f t="shared" ca="1" si="27"/>
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.45">
@@ -6251,59 +6249,59 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="19"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="20"/>
-        <v>5.7809604740571678E-4</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0456133694723864</v>
+        <v>1.9828629602036729</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="28"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="15"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="18"/>
-        <v>6.0252871040748861</v>
+        <v>8.5820932929565021</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="21"/>
-        <v>0.39676422325225741</v>
+        <v>6.66521105874157E-2</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="22"/>
-        <v>5.0742360810325504</v>
+        <v>1.5843938495776113</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="23"/>
-        <v>2.6857731231121273</v>
+        <v>18.547587627508054</v>
       </c>
       <c r="L96">
         <f t="shared" ca="1" si="24"/>
-        <v>84.911468049856964</v>
+        <v>375.78268685921591</v>
       </c>
       <c r="M96">
         <f t="shared" ca="1" si="25"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N96">
         <f t="shared" ca="1" si="26"/>
-        <v>0.25775334862253724</v>
+        <v>0.23437036406897011</v>
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="27"/>
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.45">
@@ -6324,47 +6322,47 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="17"/>
-        <v>1.6256893848112843</v>
+        <v>0.57024162131642619</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="28"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="15"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="18"/>
-        <v>5.5801964499775725</v>
+        <v>7.4209959342374443</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="21"/>
-        <v>5.1606509701059705E-2</v>
+        <v>0.14677055290346341</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="22"/>
-        <v>5.2726360186842918</v>
+        <v>6.881936890337319</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="23"/>
-        <v>6.4209684973076104</v>
+        <v>2.3543011815466008</v>
       </c>
       <c r="L97">
         <f t="shared" ca="1" si="24"/>
-        <v>415.33234494300251</v>
+        <v>325.81934523882654</v>
       </c>
       <c r="M97">
         <f t="shared" ca="1" si="25"/>
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N97">
         <f t="shared" ca="1" si="26"/>
-        <v>8.4619128689839257E-2</v>
+        <v>0.23569763912994335</v>
       </c>
       <c r="O97">
         <f t="shared" ca="1" si="27"/>
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.45">
@@ -6377,55 +6375,55 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="19"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="20"/>
-        <v>8.053784411990634E-6</v>
+        <v>3.999447497610971E-5</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="17"/>
-        <v>0.32625666434777284</v>
+        <v>1.2529281827339303</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="28"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="15"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="18"/>
-        <v>7.2153359059314841</v>
+        <v>9.4213382939283541</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="21"/>
-        <v>0.20082366819809128</v>
+        <v>0.30089157455922033</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="22"/>
-        <v>1.081778652941801</v>
+        <v>1.5077986320834671</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="23"/>
-        <v>1.1255846315934548</v>
+        <v>17.104598704005962</v>
       </c>
       <c r="L98">
         <f t="shared" ca="1" si="24"/>
-        <v>316.01531494115801</v>
+        <v>122.79060921606494</v>
       </c>
       <c r="M98">
         <f t="shared" ca="1" si="25"/>
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N98">
         <f t="shared" ca="1" si="26"/>
-        <v>0.33675222793532689</v>
+        <v>5.0197561005774188E-2</v>
       </c>
       <c r="O98">
         <f t="shared" ca="1" si="27"/>
-        <v>199</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.45">
@@ -6434,23 +6432,23 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>2.7669416454114999E-6</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="17"/>
-        <v>0.9759913372602973</v>
+        <v>1.8942903268647968</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="28"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="15"/>
@@ -6458,35 +6456,35 @@
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="18"/>
-        <v>6.9804974900395083</v>
+        <v>9.0945450076522718</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="21"/>
-        <v>0.39365119408126109</v>
+        <v>0.15854623164044418</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3726793604712544</v>
+        <v>3.8113665000595156</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="23"/>
-        <v>10.051025672946434</v>
+        <v>16.850459816463527</v>
       </c>
       <c r="L99">
         <f t="shared" ca="1" si="24"/>
-        <v>254.12303642550023</v>
+        <v>109.3398031046232</v>
       </c>
       <c r="M99">
         <f t="shared" ca="1" si="25"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N99">
         <f t="shared" ca="1" si="26"/>
-        <v>0.25278461445829953</v>
+        <v>0.30253649616133704</v>
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="27"/>
-        <v>191</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.45">
@@ -6495,19 +6493,19 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="19"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="20"/>
-        <v>1.1641260294104884E-4</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="17"/>
-        <v>0.40619743543874565</v>
+        <v>0.82371529131965227</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="28"/>
@@ -6515,39 +6513,39 @@
       </c>
       <c r="G100">
         <f t="shared" ref="G100" ca="1" si="29">INT(RAND()*(32-12)+12)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="18"/>
-        <v>6.1623862550118371</v>
+        <v>8.055764094842031</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="21"/>
-        <v>0.34257392390815344</v>
+        <v>0.14748664550983781</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="22"/>
-        <v>7.0360019900383319</v>
+        <v>7.8210528311731853</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="23"/>
-        <v>4.2666549362960655</v>
+        <v>15.122924516764904</v>
       </c>
       <c r="L100">
         <f t="shared" ca="1" si="24"/>
-        <v>113.81369053943837</v>
+        <v>57.598389633841606</v>
       </c>
       <c r="M100">
         <f t="shared" ca="1" si="25"/>
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="N100">
         <f t="shared" ca="1" si="26"/>
-        <v>0.27799864692452986</v>
+        <v>0.10202775245478277</v>
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="27"/>
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
